--- a/database/industries/chemical/sharum/product/monthly.xlsx
+++ b/database/industries/chemical/sharum/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\chemical\sharum\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAB43AC-77E9-48E1-A717-8A6ED762BB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757026A8-CC56-4634-BD3E-CC2DCB35A8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="1464" windowWidth="20460" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>شاروم-پتروشیمی ارومیه</t>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 5 منتهی به 1398/05</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1398/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1398/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1398/08</t>
@@ -185,6 +176,15 @@
   </si>
   <si>
     <t>ماه 6 منتهی به 1402/06</t>
+  </si>
+  <si>
+    <t>ماه 7 منتهی به 1402/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1402/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1402/09</t>
   </si>
   <si>
     <t>سولفات پتاسیم</t>
@@ -1514,125 +1514,125 @@
       <c r="N12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>57</v>
+      <c r="O12" s="9">
+        <v>188</v>
+      </c>
+      <c r="P12" s="9">
+        <v>845</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>1595</v>
       </c>
       <c r="R12" s="9">
-        <v>188</v>
+        <v>1351</v>
       </c>
       <c r="S12" s="9">
-        <v>845</v>
+        <v>1513</v>
       </c>
       <c r="T12" s="9">
-        <v>1595</v>
+        <v>1685</v>
       </c>
       <c r="U12" s="9">
-        <v>1351</v>
+        <v>861</v>
       </c>
       <c r="V12" s="9">
-        <v>1513</v>
+        <v>689</v>
       </c>
       <c r="W12" s="9">
-        <v>1685</v>
+        <v>1394</v>
       </c>
       <c r="X12" s="9">
-        <v>861</v>
+        <v>1618</v>
       </c>
       <c r="Y12" s="9">
-        <v>689</v>
+        <v>1774</v>
       </c>
       <c r="Z12" s="9">
-        <v>1394</v>
+        <v>1547</v>
       </c>
       <c r="AA12" s="9">
+        <v>1199</v>
+      </c>
+      <c r="AB12" s="9">
         <v>1618</v>
       </c>
-      <c r="AB12" s="9">
-        <v>1774</v>
-      </c>
       <c r="AC12" s="9">
-        <v>1547</v>
+        <v>1145</v>
       </c>
       <c r="AD12" s="9">
-        <v>1199</v>
+        <v>1284</v>
       </c>
       <c r="AE12" s="9">
-        <v>1618</v>
+        <v>1382</v>
       </c>
       <c r="AF12" s="9">
-        <v>1145</v>
+        <v>1158</v>
       </c>
       <c r="AG12" s="9">
-        <v>1284</v>
+        <v>1662</v>
       </c>
       <c r="AH12" s="9">
-        <v>1382</v>
+        <v>1453</v>
       </c>
       <c r="AI12" s="9">
-        <v>1158</v>
+        <v>869</v>
       </c>
       <c r="AJ12" s="9">
+        <v>1345</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>1310</v>
+      </c>
+      <c r="AL12" s="9">
+        <v>941</v>
+      </c>
+      <c r="AM12" s="9">
+        <v>930</v>
+      </c>
+      <c r="AN12" s="9">
+        <v>1037</v>
+      </c>
+      <c r="AO12" s="9">
+        <v>1258</v>
+      </c>
+      <c r="AP12" s="9">
+        <v>1439</v>
+      </c>
+      <c r="AQ12" s="9">
+        <v>1913</v>
+      </c>
+      <c r="AR12" s="9">
+        <v>2235</v>
+      </c>
+      <c r="AS12" s="9">
+        <v>2283</v>
+      </c>
+      <c r="AT12" s="9">
+        <v>1945</v>
+      </c>
+      <c r="AU12" s="9">
+        <v>1503</v>
+      </c>
+      <c r="AV12" s="9">
+        <v>1528</v>
+      </c>
+      <c r="AW12" s="9">
         <v>1662</v>
       </c>
-      <c r="AK12" s="9">
-        <v>1453</v>
-      </c>
-      <c r="AL12" s="9">
-        <v>869</v>
-      </c>
-      <c r="AM12" s="9">
-        <v>1345</v>
-      </c>
-      <c r="AN12" s="9">
-        <v>1310</v>
-      </c>
-      <c r="AO12" s="9">
-        <v>941</v>
-      </c>
-      <c r="AP12" s="9">
-        <v>930</v>
-      </c>
-      <c r="AQ12" s="9">
-        <v>1037</v>
-      </c>
-      <c r="AR12" s="9">
-        <v>1258</v>
-      </c>
-      <c r="AS12" s="9">
-        <v>1439</v>
-      </c>
-      <c r="AT12" s="9">
-        <v>1913</v>
-      </c>
-      <c r="AU12" s="9">
-        <v>2235</v>
-      </c>
-      <c r="AV12" s="9">
-        <v>2283</v>
-      </c>
-      <c r="AW12" s="9">
-        <v>1945</v>
-      </c>
       <c r="AX12" s="9">
-        <v>1503</v>
+        <v>2224</v>
       </c>
       <c r="AY12" s="9">
-        <v>1528</v>
+        <v>1826</v>
       </c>
       <c r="AZ12" s="9">
-        <v>1662</v>
+        <v>1880</v>
       </c>
       <c r="BA12" s="9">
-        <v>2224</v>
+        <v>1688</v>
       </c>
       <c r="BB12" s="9">
-        <v>1826</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1658,140 +1658,140 @@
       <c r="I13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>57</v>
+      <c r="J13" s="13">
+        <v>3630</v>
+      </c>
+      <c r="K13" s="13">
+        <v>2788</v>
+      </c>
+      <c r="L13" s="13">
+        <v>3777</v>
       </c>
       <c r="M13" s="13">
-        <v>3630</v>
+        <v>3556</v>
       </c>
       <c r="N13" s="13">
-        <v>2788</v>
+        <v>3422</v>
       </c>
       <c r="O13" s="13">
-        <v>3777</v>
+        <v>3229</v>
       </c>
       <c r="P13" s="13">
-        <v>3556</v>
+        <v>3470</v>
       </c>
       <c r="Q13" s="13">
+        <v>3560</v>
+      </c>
+      <c r="R13" s="13">
+        <v>3560</v>
+      </c>
+      <c r="S13" s="13">
+        <v>3540</v>
+      </c>
+      <c r="T13" s="13">
+        <v>3118</v>
+      </c>
+      <c r="U13" s="13">
+        <v>2915</v>
+      </c>
+      <c r="V13" s="13">
+        <v>3260</v>
+      </c>
+      <c r="W13" s="13">
+        <v>3377</v>
+      </c>
+      <c r="X13" s="13">
+        <v>3707</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>3194</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>3395</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>3356</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>3426</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>2453</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>3160</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>3045</v>
+      </c>
+      <c r="AF13" s="13">
+        <v>2807</v>
+      </c>
+      <c r="AG13" s="13">
+        <v>2587</v>
+      </c>
+      <c r="AH13" s="13">
+        <v>3196</v>
+      </c>
+      <c r="AI13" s="13">
+        <v>3157</v>
+      </c>
+      <c r="AJ13" s="13">
+        <v>2807</v>
+      </c>
+      <c r="AK13" s="13">
+        <v>2263</v>
+      </c>
+      <c r="AL13" s="13">
+        <v>3023</v>
+      </c>
+      <c r="AM13" s="13">
+        <v>2927</v>
+      </c>
+      <c r="AN13" s="13">
+        <v>2647</v>
+      </c>
+      <c r="AO13" s="13">
+        <v>2857</v>
+      </c>
+      <c r="AP13" s="13">
+        <v>3050</v>
+      </c>
+      <c r="AQ13" s="13">
+        <v>2699</v>
+      </c>
+      <c r="AR13" s="13">
+        <v>2660</v>
+      </c>
+      <c r="AS13" s="13">
+        <v>2824</v>
+      </c>
+      <c r="AT13" s="13">
+        <v>2878</v>
+      </c>
+      <c r="AU13" s="13">
+        <v>417</v>
+      </c>
+      <c r="AV13" s="13">
+        <v>1990</v>
+      </c>
+      <c r="AW13" s="13">
+        <v>3037</v>
+      </c>
+      <c r="AX13" s="13">
+        <v>3220</v>
+      </c>
+      <c r="AY13" s="13">
+        <v>2353</v>
+      </c>
+      <c r="AZ13" s="13">
+        <v>2280</v>
+      </c>
+      <c r="BA13" s="13">
         <v>3422</v>
       </c>
-      <c r="R13" s="13">
-        <v>3229</v>
-      </c>
-      <c r="S13" s="13">
-        <v>3470</v>
-      </c>
-      <c r="T13" s="13">
-        <v>3560</v>
-      </c>
-      <c r="U13" s="13">
-        <v>3560</v>
-      </c>
-      <c r="V13" s="13">
-        <v>3540</v>
-      </c>
-      <c r="W13" s="13">
-        <v>3118</v>
-      </c>
-      <c r="X13" s="13">
-        <v>2915</v>
-      </c>
-      <c r="Y13" s="13">
-        <v>3260</v>
-      </c>
-      <c r="Z13" s="13">
-        <v>3377</v>
-      </c>
-      <c r="AA13" s="13">
-        <v>3707</v>
-      </c>
-      <c r="AB13" s="13">
-        <v>3194</v>
-      </c>
-      <c r="AC13" s="13">
-        <v>3395</v>
-      </c>
-      <c r="AD13" s="13">
-        <v>3356</v>
-      </c>
-      <c r="AE13" s="13">
-        <v>3426</v>
-      </c>
-      <c r="AF13" s="13">
-        <v>2453</v>
-      </c>
-      <c r="AG13" s="13">
-        <v>3160</v>
-      </c>
-      <c r="AH13" s="13">
-        <v>3045</v>
-      </c>
-      <c r="AI13" s="13">
-        <v>2807</v>
-      </c>
-      <c r="AJ13" s="13">
-        <v>2587</v>
-      </c>
-      <c r="AK13" s="13">
-        <v>3196</v>
-      </c>
-      <c r="AL13" s="13">
-        <v>3157</v>
-      </c>
-      <c r="AM13" s="13">
-        <v>2807</v>
-      </c>
-      <c r="AN13" s="13">
-        <v>2263</v>
-      </c>
-      <c r="AO13" s="13">
-        <v>3023</v>
-      </c>
-      <c r="AP13" s="13">
-        <v>2927</v>
-      </c>
-      <c r="AQ13" s="13">
-        <v>2647</v>
-      </c>
-      <c r="AR13" s="13">
-        <v>2857</v>
-      </c>
-      <c r="AS13" s="13">
-        <v>3050</v>
-      </c>
-      <c r="AT13" s="13">
-        <v>2699</v>
-      </c>
-      <c r="AU13" s="13">
-        <v>2660</v>
-      </c>
-      <c r="AV13" s="13">
-        <v>2824</v>
-      </c>
-      <c r="AW13" s="13">
-        <v>2878</v>
-      </c>
-      <c r="AX13" s="13">
-        <v>417</v>
-      </c>
-      <c r="AY13" s="13">
-        <v>1990</v>
-      </c>
-      <c r="AZ13" s="13">
-        <v>3037</v>
-      </c>
-      <c r="BA13" s="13">
-        <v>3220</v>
-      </c>
       <c r="BB13" s="13">
-        <v>2353</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1817,140 +1817,140 @@
       <c r="I14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>57</v>
+      <c r="J14" s="9">
+        <v>334</v>
+      </c>
+      <c r="K14" s="9">
+        <v>329</v>
+      </c>
+      <c r="L14" s="9">
+        <v>317</v>
       </c>
       <c r="M14" s="9">
+        <v>475</v>
+      </c>
+      <c r="N14" s="9">
+        <v>359</v>
+      </c>
+      <c r="O14" s="9">
+        <v>377</v>
+      </c>
+      <c r="P14" s="9">
+        <v>367</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>345</v>
+      </c>
+      <c r="R14" s="9">
+        <v>333</v>
+      </c>
+      <c r="S14" s="9">
+        <v>345</v>
+      </c>
+      <c r="T14" s="9">
+        <v>327</v>
+      </c>
+      <c r="U14" s="9">
+        <v>325</v>
+      </c>
+      <c r="V14" s="9">
+        <v>296</v>
+      </c>
+      <c r="W14" s="9">
+        <v>317</v>
+      </c>
+      <c r="X14" s="9">
+        <v>312</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>311</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>307</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>333</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>320</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>324</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>308</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>253</v>
+      </c>
+      <c r="AF14" s="9">
+        <v>322</v>
+      </c>
+      <c r="AG14" s="9">
+        <v>326</v>
+      </c>
+      <c r="AH14" s="9">
+        <v>346</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>316</v>
+      </c>
+      <c r="AJ14" s="9">
         <v>334</v>
       </c>
-      <c r="N14" s="9">
+      <c r="AK14" s="9">
         <v>329</v>
       </c>
-      <c r="O14" s="9">
-        <v>317</v>
-      </c>
-      <c r="P14" s="9">
-        <v>475</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>359</v>
-      </c>
-      <c r="R14" s="9">
-        <v>377</v>
-      </c>
-      <c r="S14" s="9">
-        <v>367</v>
-      </c>
-      <c r="T14" s="9">
-        <v>345</v>
-      </c>
-      <c r="U14" s="9">
-        <v>333</v>
-      </c>
-      <c r="V14" s="9">
-        <v>345</v>
-      </c>
-      <c r="W14" s="9">
-        <v>327</v>
-      </c>
-      <c r="X14" s="9">
-        <v>325</v>
-      </c>
-      <c r="Y14" s="9">
-        <v>296</v>
-      </c>
-      <c r="Z14" s="9">
-        <v>317</v>
-      </c>
-      <c r="AA14" s="9">
-        <v>312</v>
-      </c>
-      <c r="AB14" s="9">
-        <v>311</v>
-      </c>
-      <c r="AC14" s="9">
-        <v>307</v>
-      </c>
-      <c r="AD14" s="9">
-        <v>333</v>
-      </c>
-      <c r="AE14" s="9">
-        <v>320</v>
-      </c>
-      <c r="AF14" s="9">
-        <v>324</v>
-      </c>
-      <c r="AG14" s="9">
-        <v>308</v>
-      </c>
-      <c r="AH14" s="9">
-        <v>253</v>
-      </c>
-      <c r="AI14" s="9">
-        <v>322</v>
-      </c>
-      <c r="AJ14" s="9">
-        <v>326</v>
-      </c>
-      <c r="AK14" s="9">
-        <v>346</v>
-      </c>
       <c r="AL14" s="9">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="AM14" s="9">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AN14" s="9">
+        <v>286</v>
+      </c>
+      <c r="AO14" s="9">
         <v>329</v>
       </c>
-      <c r="AO14" s="9">
-        <v>340</v>
-      </c>
       <c r="AP14" s="9">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AQ14" s="9">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="AR14" s="9">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="AS14" s="9">
-        <v>328</v>
+        <v>262</v>
       </c>
       <c r="AT14" s="9">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="AU14" s="9">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="9">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="AW14" s="9">
-        <v>218</v>
+        <v>365</v>
       </c>
       <c r="AX14" s="9">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AY14" s="9">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="AZ14" s="9">
-        <v>365</v>
+        <v>73</v>
       </c>
       <c r="BA14" s="9">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="BB14" s="9">
-        <v>178</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -1979,137 +1979,137 @@
       <c r="J15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>57</v>
+      <c r="K15" s="13">
+        <v>6225</v>
+      </c>
+      <c r="L15" s="13">
+        <v>4315</v>
+      </c>
+      <c r="M15" s="13">
+        <v>6633</v>
       </c>
       <c r="N15" s="13">
-        <v>6225</v>
+        <v>4555</v>
       </c>
       <c r="O15" s="13">
-        <v>4315</v>
+        <v>4400</v>
       </c>
       <c r="P15" s="13">
-        <v>6633</v>
+        <v>4020</v>
       </c>
       <c r="Q15" s="13">
-        <v>4555</v>
+        <v>4205</v>
       </c>
       <c r="R15" s="13">
-        <v>4400</v>
+        <v>4170</v>
       </c>
       <c r="S15" s="13">
-        <v>4020</v>
+        <v>4460</v>
       </c>
       <c r="T15" s="13">
-        <v>4205</v>
+        <v>4415</v>
       </c>
       <c r="U15" s="13">
-        <v>4170</v>
+        <v>4500</v>
       </c>
       <c r="V15" s="13">
-        <v>4460</v>
+        <v>4600</v>
       </c>
       <c r="W15" s="13">
-        <v>4415</v>
+        <v>4610</v>
       </c>
       <c r="X15" s="13">
-        <v>4500</v>
+        <v>4429</v>
       </c>
       <c r="Y15" s="13">
-        <v>4600</v>
+        <v>3308</v>
       </c>
       <c r="Z15" s="13">
-        <v>4610</v>
+        <v>3857</v>
       </c>
       <c r="AA15" s="13">
-        <v>4429</v>
+        <v>4236</v>
       </c>
       <c r="AB15" s="13">
-        <v>3308</v>
+        <v>4070</v>
       </c>
       <c r="AC15" s="13">
-        <v>3857</v>
+        <v>4053</v>
       </c>
       <c r="AD15" s="13">
-        <v>4236</v>
+        <v>4098</v>
       </c>
       <c r="AE15" s="13">
-        <v>4070</v>
+        <v>4187</v>
       </c>
       <c r="AF15" s="13">
-        <v>4053</v>
+        <v>4038</v>
       </c>
       <c r="AG15" s="13">
-        <v>4098</v>
+        <v>3484</v>
       </c>
       <c r="AH15" s="13">
-        <v>4187</v>
+        <v>3132</v>
       </c>
       <c r="AI15" s="13">
-        <v>4038</v>
+        <v>1745</v>
       </c>
       <c r="AJ15" s="13">
-        <v>3484</v>
+        <v>510</v>
       </c>
       <c r="AK15" s="13">
-        <v>3132</v>
+        <v>4446</v>
       </c>
       <c r="AL15" s="13">
-        <v>1745</v>
+        <v>4632</v>
       </c>
       <c r="AM15" s="13">
-        <v>510</v>
+        <v>4453</v>
       </c>
       <c r="AN15" s="13">
-        <v>4446</v>
+        <v>4106</v>
       </c>
       <c r="AO15" s="13">
-        <v>4632</v>
+        <v>3882</v>
       </c>
       <c r="AP15" s="13">
-        <v>4453</v>
+        <v>3321</v>
       </c>
       <c r="AQ15" s="13">
-        <v>4106</v>
+        <v>1247</v>
       </c>
       <c r="AR15" s="13">
-        <v>3882</v>
+        <v>1808</v>
       </c>
       <c r="AS15" s="13">
-        <v>3321</v>
+        <v>2802</v>
       </c>
       <c r="AT15" s="13">
-        <v>1247</v>
+        <v>2584</v>
       </c>
       <c r="AU15" s="13">
-        <v>1808</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="13">
-        <v>2802</v>
+        <v>460</v>
       </c>
       <c r="AW15" s="13">
-        <v>2584</v>
+        <v>3872</v>
       </c>
       <c r="AX15" s="13">
-        <v>0</v>
+        <v>3941</v>
       </c>
       <c r="AY15" s="13">
-        <v>460</v>
+        <v>3637</v>
       </c>
       <c r="AZ15" s="13">
-        <v>3872</v>
+        <v>3643</v>
       </c>
       <c r="BA15" s="13">
-        <v>3941</v>
+        <v>3596</v>
       </c>
       <c r="BB15" s="13">
-        <v>3637</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2135,8 +2135,8 @@
       <c r="I16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>57</v>
+      <c r="J16" s="9">
+        <v>6211</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>57</v>
@@ -2144,8 +2144,8 @@
       <c r="L16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="9">
-        <v>6211</v>
+      <c r="M16" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>57</v>
@@ -2309,74 +2309,74 @@
       <c r="N17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>57</v>
+      <c r="O17" s="13">
+        <v>253</v>
+      </c>
+      <c r="P17" s="13">
+        <v>939</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>1927</v>
       </c>
       <c r="R17" s="13">
-        <v>253</v>
+        <v>1604</v>
       </c>
       <c r="S17" s="13">
-        <v>939</v>
+        <v>1693</v>
       </c>
       <c r="T17" s="13">
-        <v>1927</v>
+        <v>2010</v>
       </c>
       <c r="U17" s="13">
-        <v>1604</v>
+        <v>1139</v>
       </c>
       <c r="V17" s="13">
-        <v>1693</v>
+        <v>753</v>
       </c>
       <c r="W17" s="13">
-        <v>2010</v>
+        <v>1537</v>
       </c>
       <c r="X17" s="13">
-        <v>1139</v>
+        <v>1786</v>
       </c>
       <c r="Y17" s="13">
-        <v>753</v>
+        <v>3397</v>
       </c>
       <c r="Z17" s="13">
-        <v>1537</v>
+        <v>1930</v>
       </c>
       <c r="AA17" s="13">
-        <v>1786</v>
+        <v>1407</v>
       </c>
       <c r="AB17" s="13">
-        <v>3397</v>
+        <v>1910</v>
       </c>
       <c r="AC17" s="13">
-        <v>1930</v>
+        <v>1546</v>
       </c>
       <c r="AD17" s="13">
-        <v>1407</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="13">
-        <v>1910</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="13">
-        <v>1546</v>
-      </c>
-      <c r="AG17" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH17" s="13">
         <v>0</v>
       </c>
-      <c r="AI17" s="13">
-        <v>0</v>
+      <c r="AI17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK17" s="13">
-        <v>0</v>
+      <c r="AK17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AL17" s="13" t="s">
         <v>57</v>
@@ -2666,139 +2666,139 @@
         <v>0</v>
       </c>
       <c r="J20" s="19">
-        <v>0</v>
+        <v>10175</v>
       </c>
       <c r="K20" s="19">
-        <v>0</v>
+        <v>9342</v>
       </c>
       <c r="L20" s="19">
-        <v>0</v>
+        <v>8409</v>
       </c>
       <c r="M20" s="19">
-        <v>10175</v>
+        <v>10664</v>
       </c>
       <c r="N20" s="19">
-        <v>9342</v>
+        <v>8336</v>
       </c>
       <c r="O20" s="19">
-        <v>8409</v>
+        <v>8447</v>
       </c>
       <c r="P20" s="19">
-        <v>10664</v>
+        <v>9641</v>
       </c>
       <c r="Q20" s="19">
-        <v>8336</v>
+        <v>11632</v>
       </c>
       <c r="R20" s="19">
-        <v>8447</v>
+        <v>11018</v>
       </c>
       <c r="S20" s="19">
-        <v>9641</v>
+        <v>11551</v>
       </c>
       <c r="T20" s="19">
-        <v>11632</v>
+        <v>11555</v>
       </c>
       <c r="U20" s="19">
-        <v>11018</v>
+        <v>9740</v>
       </c>
       <c r="V20" s="19">
-        <v>11551</v>
+        <v>9598</v>
       </c>
       <c r="W20" s="19">
-        <v>11555</v>
+        <v>11235</v>
       </c>
       <c r="X20" s="19">
-        <v>9740</v>
+        <v>11852</v>
       </c>
       <c r="Y20" s="19">
-        <v>9598</v>
+        <v>11984</v>
       </c>
       <c r="Z20" s="19">
-        <v>11235</v>
+        <v>11036</v>
       </c>
       <c r="AA20" s="19">
-        <v>11852</v>
+        <v>10531</v>
       </c>
       <c r="AB20" s="19">
-        <v>11984</v>
+        <v>11344</v>
       </c>
       <c r="AC20" s="19">
-        <v>11036</v>
+        <v>9521</v>
       </c>
       <c r="AD20" s="19">
-        <v>10531</v>
+        <v>8850</v>
       </c>
       <c r="AE20" s="19">
-        <v>11344</v>
+        <v>8867</v>
       </c>
       <c r="AF20" s="19">
-        <v>9521</v>
+        <v>8325</v>
       </c>
       <c r="AG20" s="19">
-        <v>8850</v>
+        <v>8059</v>
       </c>
       <c r="AH20" s="19">
-        <v>8867</v>
+        <v>8127</v>
       </c>
       <c r="AI20" s="19">
-        <v>8325</v>
+        <v>6087</v>
       </c>
       <c r="AJ20" s="19">
-        <v>8059</v>
+        <v>4996</v>
       </c>
       <c r="AK20" s="19">
-        <v>8127</v>
+        <v>8348</v>
       </c>
       <c r="AL20" s="19">
-        <v>6087</v>
+        <v>8936</v>
       </c>
       <c r="AM20" s="19">
-        <v>4996</v>
+        <v>8650</v>
       </c>
       <c r="AN20" s="19">
-        <v>8348</v>
+        <v>8076</v>
       </c>
       <c r="AO20" s="19">
+        <v>8326</v>
+      </c>
+      <c r="AP20" s="19">
+        <v>8138</v>
+      </c>
+      <c r="AQ20" s="19">
+        <v>6132</v>
+      </c>
+      <c r="AR20" s="19">
+        <v>6984</v>
+      </c>
+      <c r="AS20" s="19">
+        <v>8171</v>
+      </c>
+      <c r="AT20" s="19">
+        <v>7625</v>
+      </c>
+      <c r="AU20" s="19">
+        <v>1920</v>
+      </c>
+      <c r="AV20" s="19">
+        <v>4201</v>
+      </c>
+      <c r="AW20" s="19">
         <v>8936</v>
       </c>
-      <c r="AP20" s="19">
-        <v>8650</v>
-      </c>
-      <c r="AQ20" s="19">
-        <v>8076</v>
-      </c>
-      <c r="AR20" s="19">
-        <v>8326</v>
-      </c>
-      <c r="AS20" s="19">
-        <v>8138</v>
-      </c>
-      <c r="AT20" s="19">
-        <v>6132</v>
-      </c>
-      <c r="AU20" s="19">
-        <v>6984</v>
-      </c>
-      <c r="AV20" s="19">
-        <v>8171</v>
-      </c>
-      <c r="AW20" s="19">
-        <v>7625</v>
-      </c>
       <c r="AX20" s="19">
-        <v>1920</v>
+        <v>9734</v>
       </c>
       <c r="AY20" s="19">
-        <v>4201</v>
+        <v>7994</v>
       </c>
       <c r="AZ20" s="19">
-        <v>8936</v>
+        <v>7876</v>
       </c>
       <c r="BA20" s="19">
-        <v>9734</v>
+        <v>9042</v>
       </c>
       <c r="BB20" s="19">
-        <v>7994</v>
+        <v>9870</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3328,125 +3328,125 @@
       <c r="N28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="O28" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P28" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>57</v>
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
+      <c r="P28" s="9">
+        <v>44</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>119</v>
       </c>
       <c r="R28" s="9">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="S28" s="9">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="T28" s="9">
-        <v>119</v>
+        <v>524</v>
       </c>
       <c r="U28" s="9">
-        <v>166</v>
+        <v>2069</v>
       </c>
       <c r="V28" s="9">
-        <v>338</v>
+        <v>719</v>
       </c>
       <c r="W28" s="9">
-        <v>524</v>
+        <v>1986</v>
       </c>
       <c r="X28" s="9">
-        <v>2069</v>
+        <v>1862</v>
       </c>
       <c r="Y28" s="9">
-        <v>719</v>
+        <v>256</v>
       </c>
       <c r="Z28" s="9">
-        <v>1986</v>
+        <v>48</v>
       </c>
       <c r="AA28" s="9">
-        <v>1862</v>
+        <v>104</v>
       </c>
       <c r="AB28" s="9">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="AC28" s="9">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="AD28" s="9">
-        <v>104</v>
+        <v>702</v>
       </c>
       <c r="AE28" s="9">
-        <v>50</v>
+        <v>3243</v>
       </c>
       <c r="AF28" s="9">
-        <v>74</v>
+        <v>7362</v>
       </c>
       <c r="AG28" s="9">
-        <v>702</v>
+        <v>986</v>
       </c>
       <c r="AH28" s="9">
-        <v>3243</v>
+        <v>1488</v>
       </c>
       <c r="AI28" s="9">
-        <v>7362</v>
+        <v>676</v>
       </c>
       <c r="AJ28" s="9">
-        <v>986</v>
+        <v>726</v>
       </c>
       <c r="AK28" s="9">
-        <v>1488</v>
+        <v>2408</v>
       </c>
       <c r="AL28" s="9">
-        <v>676</v>
+        <v>1090</v>
       </c>
       <c r="AM28" s="9">
-        <v>726</v>
+        <v>2040</v>
       </c>
       <c r="AN28" s="9">
-        <v>2408</v>
+        <v>1898</v>
       </c>
       <c r="AO28" s="9">
-        <v>1090</v>
+        <v>3258</v>
       </c>
       <c r="AP28" s="9">
-        <v>2040</v>
+        <v>1538</v>
       </c>
       <c r="AQ28" s="9">
-        <v>1898</v>
+        <v>28</v>
       </c>
       <c r="AR28" s="9">
-        <v>3258</v>
+        <v>525</v>
       </c>
       <c r="AS28" s="9">
-        <v>1538</v>
+        <v>3439</v>
       </c>
       <c r="AT28" s="9">
-        <v>28</v>
+        <v>6107</v>
       </c>
       <c r="AU28" s="9">
-        <v>525</v>
+        <v>4157</v>
       </c>
       <c r="AV28" s="9">
-        <v>3439</v>
+        <v>2581</v>
       </c>
       <c r="AW28" s="9">
-        <v>6107</v>
+        <v>2282</v>
       </c>
       <c r="AX28" s="9">
-        <v>4157</v>
+        <v>2686</v>
       </c>
       <c r="AY28" s="9">
-        <v>2581</v>
+        <v>625</v>
       </c>
       <c r="AZ28" s="9">
-        <v>2282</v>
+        <v>627</v>
       </c>
       <c r="BA28" s="9">
-        <v>2686</v>
+        <v>672</v>
       </c>
       <c r="BB28" s="9">
-        <v>625</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3472,140 +3472,140 @@
       <c r="I29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>57</v>
+      <c r="J29" s="13">
+        <v>6258</v>
+      </c>
+      <c r="K29" s="13">
+        <v>5160</v>
+      </c>
+      <c r="L29" s="13">
+        <v>3718</v>
       </c>
       <c r="M29" s="13">
-        <v>6258</v>
+        <v>3902</v>
       </c>
       <c r="N29" s="13">
-        <v>5160</v>
+        <v>3182</v>
       </c>
       <c r="O29" s="13">
-        <v>3718</v>
+        <v>3747</v>
       </c>
       <c r="P29" s="13">
-        <v>3902</v>
+        <v>3449</v>
       </c>
       <c r="Q29" s="13">
-        <v>3182</v>
+        <v>2925</v>
       </c>
       <c r="R29" s="13">
-        <v>3747</v>
+        <v>3483</v>
       </c>
       <c r="S29" s="13">
-        <v>3449</v>
+        <v>3999</v>
       </c>
       <c r="T29" s="13">
-        <v>2925</v>
+        <v>4185</v>
       </c>
       <c r="U29" s="13">
-        <v>3483</v>
+        <v>3218</v>
       </c>
       <c r="V29" s="13">
-        <v>3999</v>
+        <v>2982</v>
       </c>
       <c r="W29" s="13">
-        <v>4185</v>
+        <v>2238</v>
       </c>
       <c r="X29" s="13">
-        <v>3218</v>
+        <v>2225</v>
       </c>
       <c r="Y29" s="13">
-        <v>2982</v>
+        <v>1872</v>
       </c>
       <c r="Z29" s="13">
-        <v>2238</v>
+        <v>1672</v>
       </c>
       <c r="AA29" s="13">
-        <v>2225</v>
+        <v>1795</v>
       </c>
       <c r="AB29" s="13">
-        <v>1872</v>
+        <v>1491</v>
       </c>
       <c r="AC29" s="13">
-        <v>1672</v>
+        <v>687</v>
       </c>
       <c r="AD29" s="13">
-        <v>1795</v>
+        <v>1935</v>
       </c>
       <c r="AE29" s="13">
-        <v>1491</v>
+        <v>1855</v>
       </c>
       <c r="AF29" s="13">
-        <v>687</v>
+        <v>3171</v>
       </c>
       <c r="AG29" s="13">
-        <v>1935</v>
+        <v>3738</v>
       </c>
       <c r="AH29" s="13">
-        <v>1855</v>
+        <v>1633</v>
       </c>
       <c r="AI29" s="13">
-        <v>3171</v>
+        <v>1232</v>
       </c>
       <c r="AJ29" s="13">
-        <v>3738</v>
+        <v>2849</v>
       </c>
       <c r="AK29" s="13">
-        <v>1633</v>
+        <v>1906</v>
       </c>
       <c r="AL29" s="13">
-        <v>1232</v>
+        <v>2638</v>
       </c>
       <c r="AM29" s="13">
-        <v>2849</v>
+        <v>4168</v>
       </c>
       <c r="AN29" s="13">
-        <v>1906</v>
+        <v>3285</v>
       </c>
       <c r="AO29" s="13">
-        <v>2638</v>
+        <v>2819</v>
       </c>
       <c r="AP29" s="13">
-        <v>4168</v>
+        <v>1044</v>
       </c>
       <c r="AQ29" s="13">
-        <v>3285</v>
+        <v>1184</v>
       </c>
       <c r="AR29" s="13">
-        <v>2819</v>
+        <v>2775</v>
       </c>
       <c r="AS29" s="13">
-        <v>1044</v>
+        <v>4454</v>
       </c>
       <c r="AT29" s="13">
-        <v>1184</v>
+        <v>5605</v>
       </c>
       <c r="AU29" s="13">
-        <v>2775</v>
+        <v>3354</v>
       </c>
       <c r="AV29" s="13">
-        <v>4454</v>
+        <v>2763</v>
       </c>
       <c r="AW29" s="13">
-        <v>5605</v>
+        <v>1608</v>
       </c>
       <c r="AX29" s="13">
-        <v>3354</v>
+        <v>1599</v>
       </c>
       <c r="AY29" s="13">
-        <v>2763</v>
+        <v>1876</v>
       </c>
       <c r="AZ29" s="13">
-        <v>1608</v>
+        <v>1122</v>
       </c>
       <c r="BA29" s="13">
-        <v>1599</v>
+        <v>1581</v>
       </c>
       <c r="BB29" s="13">
-        <v>1876</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3631,140 +3631,140 @@
       <c r="I30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>57</v>
+      <c r="J30" s="9">
+        <v>285</v>
+      </c>
+      <c r="K30" s="9">
+        <v>419</v>
+      </c>
+      <c r="L30" s="9">
+        <v>270</v>
       </c>
       <c r="M30" s="9">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="N30" s="9">
-        <v>419</v>
+        <v>330</v>
       </c>
       <c r="O30" s="9">
-        <v>270</v>
+        <v>366</v>
       </c>
       <c r="P30" s="9">
-        <v>343</v>
+        <v>228</v>
       </c>
       <c r="Q30" s="9">
+        <v>278</v>
+      </c>
+      <c r="R30" s="9">
+        <v>298</v>
+      </c>
+      <c r="S30" s="9">
+        <v>436</v>
+      </c>
+      <c r="T30" s="9">
+        <v>502</v>
+      </c>
+      <c r="U30" s="9">
+        <v>244</v>
+      </c>
+      <c r="V30" s="9">
+        <v>120</v>
+      </c>
+      <c r="W30" s="9">
+        <v>198</v>
+      </c>
+      <c r="X30" s="9">
+        <v>405</v>
+      </c>
+      <c r="Y30" s="9">
+        <v>371</v>
+      </c>
+      <c r="Z30" s="9">
         <v>330</v>
       </c>
-      <c r="R30" s="9">
-        <v>366</v>
-      </c>
-      <c r="S30" s="9">
+      <c r="AA30" s="9">
+        <v>444</v>
+      </c>
+      <c r="AB30" s="9">
+        <v>320</v>
+      </c>
+      <c r="AC30" s="9">
+        <v>360</v>
+      </c>
+      <c r="AD30" s="9">
+        <v>361</v>
+      </c>
+      <c r="AE30" s="9">
+        <v>265</v>
+      </c>
+      <c r="AF30" s="9">
+        <v>250</v>
+      </c>
+      <c r="AG30" s="9">
+        <v>200</v>
+      </c>
+      <c r="AH30" s="9">
+        <v>144</v>
+      </c>
+      <c r="AI30" s="9">
+        <v>125</v>
+      </c>
+      <c r="AJ30" s="9">
+        <v>326</v>
+      </c>
+      <c r="AK30" s="9">
+        <v>103</v>
+      </c>
+      <c r="AL30" s="9">
+        <v>174</v>
+      </c>
+      <c r="AM30" s="9">
+        <v>272</v>
+      </c>
+      <c r="AN30" s="9">
+        <v>777</v>
+      </c>
+      <c r="AO30" s="9">
+        <v>584</v>
+      </c>
+      <c r="AP30" s="9">
+        <v>248</v>
+      </c>
+      <c r="AQ30" s="9">
+        <v>607</v>
+      </c>
+      <c r="AR30" s="9">
+        <v>353</v>
+      </c>
+      <c r="AS30" s="9">
+        <v>294</v>
+      </c>
+      <c r="AT30" s="9">
+        <v>225</v>
+      </c>
+      <c r="AU30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="9">
+        <v>220</v>
+      </c>
+      <c r="AW30" s="9">
+        <v>328</v>
+      </c>
+      <c r="AX30" s="9">
+        <v>355</v>
+      </c>
+      <c r="AY30" s="9">
         <v>228</v>
       </c>
-      <c r="T30" s="9">
-        <v>278</v>
-      </c>
-      <c r="U30" s="9">
-        <v>298</v>
-      </c>
-      <c r="V30" s="9">
-        <v>436</v>
-      </c>
-      <c r="W30" s="9">
-        <v>502</v>
-      </c>
-      <c r="X30" s="9">
-        <v>244</v>
-      </c>
-      <c r="Y30" s="9">
-        <v>120</v>
-      </c>
-      <c r="Z30" s="9">
-        <v>198</v>
-      </c>
-      <c r="AA30" s="9">
-        <v>405</v>
-      </c>
-      <c r="AB30" s="9">
-        <v>371</v>
-      </c>
-      <c r="AC30" s="9">
-        <v>330</v>
-      </c>
-      <c r="AD30" s="9">
-        <v>444</v>
-      </c>
-      <c r="AE30" s="9">
-        <v>320</v>
-      </c>
-      <c r="AF30" s="9">
-        <v>360</v>
-      </c>
-      <c r="AG30" s="9">
-        <v>361</v>
-      </c>
-      <c r="AH30" s="9">
-        <v>265</v>
-      </c>
-      <c r="AI30" s="9">
-        <v>250</v>
-      </c>
-      <c r="AJ30" s="9">
-        <v>200</v>
-      </c>
-      <c r="AK30" s="9">
-        <v>144</v>
-      </c>
-      <c r="AL30" s="9">
-        <v>125</v>
-      </c>
-      <c r="AM30" s="9">
-        <v>326</v>
-      </c>
-      <c r="AN30" s="9">
-        <v>103</v>
-      </c>
-      <c r="AO30" s="9">
-        <v>174</v>
-      </c>
-      <c r="AP30" s="9">
-        <v>272</v>
-      </c>
-      <c r="AQ30" s="9">
-        <v>777</v>
-      </c>
-      <c r="AR30" s="9">
-        <v>584</v>
-      </c>
-      <c r="AS30" s="9">
-        <v>248</v>
-      </c>
-      <c r="AT30" s="9">
-        <v>607</v>
-      </c>
-      <c r="AU30" s="9">
-        <v>353</v>
-      </c>
-      <c r="AV30" s="9">
-        <v>294</v>
-      </c>
-      <c r="AW30" s="9">
-        <v>225</v>
-      </c>
-      <c r="AX30" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY30" s="9">
-        <v>220</v>
-      </c>
       <c r="AZ30" s="9">
-        <v>328</v>
+        <v>4</v>
       </c>
       <c r="BA30" s="9">
-        <v>355</v>
+        <v>72</v>
       </c>
       <c r="BB30" s="9">
-        <v>228</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3793,137 +3793,137 @@
       <c r="J31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K31" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>57</v>
+      <c r="K31" s="13">
+        <v>1359</v>
+      </c>
+      <c r="L31" s="13">
+        <v>699</v>
+      </c>
+      <c r="M31" s="13">
+        <v>1198</v>
       </c>
       <c r="N31" s="13">
-        <v>1359</v>
+        <v>1092</v>
       </c>
       <c r="O31" s="13">
-        <v>699</v>
+        <v>1556</v>
       </c>
       <c r="P31" s="13">
-        <v>1198</v>
+        <v>2148</v>
       </c>
       <c r="Q31" s="13">
-        <v>1092</v>
+        <v>1552</v>
       </c>
       <c r="R31" s="13">
-        <v>1556</v>
+        <v>1634</v>
       </c>
       <c r="S31" s="13">
-        <v>2148</v>
+        <v>1353</v>
       </c>
       <c r="T31" s="13">
-        <v>1552</v>
+        <v>985</v>
       </c>
       <c r="U31" s="13">
-        <v>1634</v>
+        <v>1028</v>
       </c>
       <c r="V31" s="13">
-        <v>1353</v>
+        <v>1320</v>
       </c>
       <c r="W31" s="13">
-        <v>985</v>
+        <v>1195</v>
       </c>
       <c r="X31" s="13">
-        <v>1028</v>
+        <v>1186</v>
       </c>
       <c r="Y31" s="13">
-        <v>1320</v>
+        <v>1263</v>
       </c>
       <c r="Z31" s="13">
-        <v>1195</v>
+        <v>880</v>
       </c>
       <c r="AA31" s="13">
-        <v>1186</v>
+        <v>1126</v>
       </c>
       <c r="AB31" s="13">
-        <v>1263</v>
+        <v>1450</v>
       </c>
       <c r="AC31" s="13">
-        <v>880</v>
+        <v>1296</v>
       </c>
       <c r="AD31" s="13">
-        <v>1126</v>
+        <v>1067</v>
       </c>
       <c r="AE31" s="13">
-        <v>1450</v>
+        <v>749</v>
       </c>
       <c r="AF31" s="13">
-        <v>1296</v>
+        <v>975</v>
       </c>
       <c r="AG31" s="13">
-        <v>1067</v>
+        <v>1482</v>
       </c>
       <c r="AH31" s="13">
-        <v>749</v>
+        <v>1301</v>
       </c>
       <c r="AI31" s="13">
-        <v>975</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="13">
-        <v>1482</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="13">
-        <v>1301</v>
+        <v>230</v>
       </c>
       <c r="AL31" s="13">
-        <v>0</v>
+        <v>1493</v>
       </c>
       <c r="AM31" s="13">
-        <v>0</v>
+        <v>1467</v>
       </c>
       <c r="AN31" s="13">
-        <v>230</v>
+        <v>1632</v>
       </c>
       <c r="AO31" s="13">
-        <v>1493</v>
+        <v>2257</v>
       </c>
       <c r="AP31" s="13">
-        <v>1467</v>
+        <v>1631</v>
       </c>
       <c r="AQ31" s="13">
-        <v>1632</v>
+        <v>639</v>
       </c>
       <c r="AR31" s="13">
-        <v>2257</v>
+        <v>452</v>
       </c>
       <c r="AS31" s="13">
-        <v>1631</v>
+        <v>366</v>
       </c>
       <c r="AT31" s="13">
-        <v>639</v>
+        <v>275</v>
       </c>
       <c r="AU31" s="13">
-        <v>452</v>
+        <v>124</v>
       </c>
       <c r="AV31" s="13">
-        <v>366</v>
+        <v>149</v>
       </c>
       <c r="AW31" s="13">
-        <v>275</v>
+        <v>363</v>
       </c>
       <c r="AX31" s="13">
-        <v>124</v>
+        <v>819</v>
       </c>
       <c r="AY31" s="13">
-        <v>149</v>
+        <v>345</v>
       </c>
       <c r="AZ31" s="13">
-        <v>363</v>
+        <v>505</v>
       </c>
       <c r="BA31" s="13">
-        <v>819</v>
+        <v>599</v>
       </c>
       <c r="BB31" s="13">
-        <v>345</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -3949,8 +3949,8 @@
       <c r="I32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>57</v>
+      <c r="J32" s="9">
+        <v>1190</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>57</v>
@@ -3958,8 +3958,8 @@
       <c r="L32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M32" s="9">
-        <v>1190</v>
+      <c r="M32" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="N32" s="9" t="s">
         <v>57</v>
@@ -4123,74 +4123,74 @@
       <c r="N33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q33" s="13" t="s">
-        <v>57</v>
+      <c r="O33" s="13">
+        <v>0</v>
+      </c>
+      <c r="P33" s="13">
+        <v>279</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>952</v>
       </c>
       <c r="R33" s="13">
-        <v>0</v>
+        <v>1352</v>
       </c>
       <c r="S33" s="13">
-        <v>279</v>
+        <v>2728</v>
       </c>
       <c r="T33" s="13">
-        <v>952</v>
+        <v>499</v>
       </c>
       <c r="U33" s="13">
-        <v>1352</v>
+        <v>580</v>
       </c>
       <c r="V33" s="13">
-        <v>2728</v>
+        <v>1322</v>
       </c>
       <c r="W33" s="13">
-        <v>499</v>
+        <v>1509</v>
       </c>
       <c r="X33" s="13">
-        <v>580</v>
+        <v>2305</v>
       </c>
       <c r="Y33" s="13">
-        <v>1322</v>
+        <v>2088</v>
       </c>
       <c r="Z33" s="13">
-        <v>1509</v>
+        <v>1321</v>
       </c>
       <c r="AA33" s="13">
-        <v>2305</v>
+        <v>1633</v>
       </c>
       <c r="AB33" s="13">
-        <v>2088</v>
+        <v>1773</v>
       </c>
       <c r="AC33" s="13">
-        <v>1321</v>
+        <v>1589</v>
       </c>
       <c r="AD33" s="13">
-        <v>1633</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="13">
-        <v>1773</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="13">
-        <v>1589</v>
-      </c>
-      <c r="AG33" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH33" s="13">
         <v>0</v>
       </c>
-      <c r="AI33" s="13">
-        <v>0</v>
+      <c r="AI33" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK33" s="13">
-        <v>0</v>
+      <c r="AK33" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AL33" s="13" t="s">
         <v>57</v>
@@ -4571,8 +4571,8 @@
       <c r="T37" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="U37" s="9" t="s">
-        <v>57</v>
+      <c r="U37" s="9">
+        <v>-1600</v>
       </c>
       <c r="V37" s="9" t="s">
         <v>57</v>
@@ -4580,8 +4580,8 @@
       <c r="W37" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="X37" s="9">
-        <v>-1600</v>
+      <c r="X37" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>57</v>
@@ -4607,8 +4607,8 @@
       <c r="AF37" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AG37" s="9" t="s">
-        <v>57</v>
+      <c r="AG37" s="9">
+        <v>-2075</v>
       </c>
       <c r="AH37" s="9" t="s">
         <v>57</v>
@@ -4616,47 +4616,47 @@
       <c r="AI37" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AJ37" s="9">
-        <v>-2075</v>
+      <c r="AJ37" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AK37" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AL37" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM37" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN37" s="9" t="s">
-        <v>57</v>
+      <c r="AL37" s="9">
+        <v>-400</v>
+      </c>
+      <c r="AM37" s="9">
+        <v>-275</v>
+      </c>
+      <c r="AN37" s="9">
+        <v>-500</v>
       </c>
       <c r="AO37" s="9">
-        <v>-400</v>
-      </c>
-      <c r="AP37" s="9">
-        <v>-275</v>
-      </c>
-      <c r="AQ37" s="9">
-        <v>-500</v>
-      </c>
-      <c r="AR37" s="9">
         <v>-200</v>
       </c>
-      <c r="AS37" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT37" s="9" t="s">
-        <v>57</v>
+      <c r="AP37" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ37" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR37" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS37" s="9">
+        <v>-2925</v>
+      </c>
+      <c r="AT37" s="9">
+        <v>-200</v>
       </c>
       <c r="AU37" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV37" s="9">
-        <v>-2925</v>
-      </c>
-      <c r="AW37" s="9">
-        <v>-200</v>
+      <c r="AV37" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW37" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AX37" s="9" t="s">
         <v>57</v>
@@ -4712,14 +4712,14 @@
       <c r="N38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q38" s="13" t="s">
-        <v>57</v>
+      <c r="O38" s="13">
+        <v>0</v>
+      </c>
+      <c r="P38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>0</v>
       </c>
       <c r="R38" s="13">
         <v>0</v>
@@ -4728,19 +4728,19 @@
         <v>0</v>
       </c>
       <c r="T38" s="13">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="U38" s="13">
-        <v>0</v>
-      </c>
-      <c r="V38" s="13">
-        <v>0</v>
-      </c>
-      <c r="W38" s="13">
         <v>-25</v>
       </c>
-      <c r="X38" s="13">
-        <v>-25</v>
+      <c r="V38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X38" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Y38" s="13" t="s">
         <v>57</v>
@@ -4757,8 +4757,8 @@
       <c r="AC38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD38" s="13" t="s">
-        <v>57</v>
+      <c r="AD38" s="13">
+        <v>-144</v>
       </c>
       <c r="AE38" s="13" t="s">
         <v>57</v>
@@ -4766,8 +4766,8 @@
       <c r="AF38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG38" s="13">
-        <v>-144</v>
+      <c r="AG38" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH38" s="13" t="s">
         <v>57</v>
@@ -4829,8 +4829,8 @@
       <c r="BA38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BB38" s="13" t="s">
-        <v>57</v>
+      <c r="BB38" s="13">
+        <v>-800</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -4877,14 +4877,14 @@
       <c r="P39" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Q39" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R39" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S39" s="9" t="s">
-        <v>57</v>
+      <c r="Q39" s="9">
+        <v>0</v>
+      </c>
+      <c r="R39" s="9">
+        <v>0</v>
+      </c>
+      <c r="S39" s="9">
+        <v>0</v>
       </c>
       <c r="T39" s="9">
         <v>0</v>
@@ -4892,14 +4892,14 @@
       <c r="U39" s="9">
         <v>0</v>
       </c>
-      <c r="V39" s="9">
-        <v>0</v>
-      </c>
-      <c r="W39" s="9">
-        <v>0</v>
-      </c>
-      <c r="X39" s="9">
-        <v>0</v>
+      <c r="V39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X39" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="Y39" s="9" t="s">
         <v>57</v>
@@ -5030,35 +5030,35 @@
       <c r="N40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q40" s="13" t="s">
-        <v>57</v>
+      <c r="O40" s="13">
+        <v>0</v>
+      </c>
+      <c r="P40" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>-25</v>
       </c>
       <c r="R40" s="13">
         <v>0</v>
       </c>
       <c r="S40" s="13">
-        <v>0</v>
+        <v>-318</v>
       </c>
       <c r="T40" s="13">
-        <v>-25</v>
+        <v>-48</v>
       </c>
       <c r="U40" s="13">
         <v>0</v>
       </c>
-      <c r="V40" s="13">
-        <v>-318</v>
-      </c>
-      <c r="W40" s="13">
-        <v>-48</v>
-      </c>
-      <c r="X40" s="13">
-        <v>0</v>
+      <c r="V40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X40" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Y40" s="13" t="s">
         <v>57</v>
@@ -5069,8 +5069,8 @@
       <c r="AA40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB40" s="13" t="s">
-        <v>57</v>
+      <c r="AB40" s="13">
+        <v>-149</v>
       </c>
       <c r="AC40" s="13" t="s">
         <v>57</v>
@@ -5078,8 +5078,8 @@
       <c r="AD40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AE40" s="13">
-        <v>-149</v>
+      <c r="AE40" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AF40" s="13" t="s">
         <v>57</v>
@@ -5105,14 +5105,14 @@
       <c r="AM40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN40" s="13" t="s">
-        <v>57</v>
+      <c r="AN40" s="13">
+        <v>-27</v>
       </c>
       <c r="AO40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP40" s="13" t="s">
-        <v>57</v>
+      <c r="AP40" s="13">
+        <v>-26</v>
       </c>
       <c r="AQ40" s="13">
         <v>-27</v>
@@ -5120,32 +5120,32 @@
       <c r="AR40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS40" s="13">
+      <c r="AS40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV40" s="13">
         <v>-26</v>
       </c>
-      <c r="AT40" s="13">
-        <v>-27</v>
-      </c>
-      <c r="AU40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV40" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="AW40" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AX40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AY40" s="13">
-        <v>-26</v>
+      <c r="AY40" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AZ40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BA40" s="13" t="s">
-        <v>57</v>
+      <c r="BA40" s="13">
+        <v>-80</v>
       </c>
       <c r="BB40" s="13" t="s">
         <v>57</v>
@@ -5273,23 +5273,23 @@
       <c r="AP41" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AQ41" s="9" t="s">
-        <v>57</v>
+      <c r="AQ41" s="9">
+        <v>-200</v>
       </c>
       <c r="AR41" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AS41" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT41" s="9">
-        <v>-200</v>
+      <c r="AS41" s="9">
+        <v>-775</v>
+      </c>
+      <c r="AT41" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AU41" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV41" s="9">
-        <v>-775</v>
+      <c r="AV41" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AW41" s="9" t="s">
         <v>57</v>
@@ -5363,20 +5363,20 @@
       <c r="S42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T42" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U42" s="13" t="s">
-        <v>57</v>
+      <c r="T42" s="13">
+        <v>-114</v>
+      </c>
+      <c r="U42" s="13">
+        <v>0</v>
       </c>
       <c r="V42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W42" s="13">
-        <v>-114</v>
-      </c>
-      <c r="X42" s="13">
-        <v>0</v>
+      <c r="W42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Y42" s="13" t="s">
         <v>57</v>
@@ -5512,28 +5512,28 @@
         <v>0</v>
       </c>
       <c r="Q43" s="17">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="R43" s="17">
         <v>0</v>
       </c>
       <c r="S43" s="17">
-        <v>0</v>
+        <v>-318</v>
       </c>
       <c r="T43" s="17">
-        <v>-25</v>
+        <v>-187</v>
       </c>
       <c r="U43" s="17">
-        <v>0</v>
+        <v>-1625</v>
       </c>
       <c r="V43" s="17">
-        <v>-318</v>
+        <v>0</v>
       </c>
       <c r="W43" s="17">
-        <v>-187</v>
+        <v>0</v>
       </c>
       <c r="X43" s="17">
-        <v>-1625</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="17">
         <v>0</v>
@@ -5545,22 +5545,22 @@
         <v>0</v>
       </c>
       <c r="AB43" s="17">
-        <v>0</v>
+        <v>-149</v>
       </c>
       <c r="AC43" s="17">
         <v>0</v>
       </c>
       <c r="AD43" s="17">
-        <v>0</v>
+        <v>-144</v>
       </c>
       <c r="AE43" s="17">
-        <v>-149</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="17">
         <v>0</v>
       </c>
       <c r="AG43" s="17">
-        <v>-144</v>
+        <v>-2075</v>
       </c>
       <c r="AH43" s="17">
         <v>0</v>
@@ -5569,61 +5569,61 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="17">
-        <v>-2075</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="17">
         <v>0</v>
       </c>
       <c r="AL43" s="17">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="AM43" s="17">
-        <v>0</v>
+        <v>-275</v>
       </c>
       <c r="AN43" s="17">
-        <v>0</v>
+        <v>-527</v>
       </c>
       <c r="AO43" s="17">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="AP43" s="17">
-        <v>-275</v>
+        <v>-26</v>
       </c>
       <c r="AQ43" s="17">
-        <v>-527</v>
+        <v>-227</v>
       </c>
       <c r="AR43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="17">
+        <v>-3700</v>
+      </c>
+      <c r="AT43" s="17">
         <v>-200</v>
       </c>
-      <c r="AS43" s="17">
+      <c r="AU43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="17">
         <v>-26</v>
       </c>
-      <c r="AT43" s="17">
-        <v>-227</v>
-      </c>
-      <c r="AU43" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV43" s="17">
-        <v>-3700</v>
-      </c>
       <c r="AW43" s="17">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AX43" s="17">
         <v>0</v>
       </c>
       <c r="AY43" s="17">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="AZ43" s="17">
         <v>0</v>
       </c>
       <c r="BA43" s="17">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="BB43" s="17">
-        <v>0</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5648,139 +5648,139 @@
         <v>0</v>
       </c>
       <c r="J44" s="19">
-        <v>0</v>
+        <v>7733</v>
       </c>
       <c r="K44" s="19">
-        <v>0</v>
+        <v>6938</v>
       </c>
       <c r="L44" s="19">
-        <v>0</v>
+        <v>4687</v>
       </c>
       <c r="M44" s="19">
-        <v>7733</v>
+        <v>5443</v>
       </c>
       <c r="N44" s="19">
-        <v>6938</v>
+        <v>4604</v>
       </c>
       <c r="O44" s="19">
-        <v>4687</v>
+        <v>5669</v>
       </c>
       <c r="P44" s="19">
-        <v>5443</v>
+        <v>6148</v>
       </c>
       <c r="Q44" s="19">
-        <v>4604</v>
+        <v>5801</v>
       </c>
       <c r="R44" s="19">
-        <v>5669</v>
+        <v>6933</v>
       </c>
       <c r="S44" s="19">
-        <v>6148</v>
+        <v>8536</v>
       </c>
       <c r="T44" s="19">
-        <v>5801</v>
+        <v>6508</v>
       </c>
       <c r="U44" s="19">
-        <v>6933</v>
+        <v>5514</v>
       </c>
       <c r="V44" s="19">
-        <v>8536</v>
+        <v>6463</v>
       </c>
       <c r="W44" s="19">
-        <v>6508</v>
+        <v>7126</v>
       </c>
       <c r="X44" s="19">
-        <v>5514</v>
+        <v>7983</v>
       </c>
       <c r="Y44" s="19">
-        <v>6463</v>
+        <v>5850</v>
       </c>
       <c r="Z44" s="19">
-        <v>7126</v>
+        <v>4251</v>
       </c>
       <c r="AA44" s="19">
-        <v>7983</v>
+        <v>5102</v>
       </c>
       <c r="AB44" s="19">
-        <v>5850</v>
+        <v>4935</v>
       </c>
       <c r="AC44" s="19">
-        <v>4251</v>
+        <v>4006</v>
       </c>
       <c r="AD44" s="19">
-        <v>5102</v>
+        <v>3921</v>
       </c>
       <c r="AE44" s="19">
-        <v>4935</v>
+        <v>6112</v>
       </c>
       <c r="AF44" s="19">
-        <v>4006</v>
+        <v>11758</v>
       </c>
       <c r="AG44" s="19">
-        <v>3921</v>
+        <v>4331</v>
       </c>
       <c r="AH44" s="19">
-        <v>6112</v>
+        <v>4566</v>
       </c>
       <c r="AI44" s="19">
-        <v>11758</v>
+        <v>2033</v>
       </c>
       <c r="AJ44" s="19">
-        <v>4331</v>
+        <v>3901</v>
       </c>
       <c r="AK44" s="19">
-        <v>4566</v>
+        <v>4647</v>
       </c>
       <c r="AL44" s="19">
-        <v>2033</v>
+        <v>4995</v>
       </c>
       <c r="AM44" s="19">
-        <v>3901</v>
+        <v>7672</v>
       </c>
       <c r="AN44" s="19">
-        <v>4647</v>
+        <v>7065</v>
       </c>
       <c r="AO44" s="19">
-        <v>4995</v>
+        <v>8718</v>
       </c>
       <c r="AP44" s="19">
-        <v>7672</v>
+        <v>4435</v>
       </c>
       <c r="AQ44" s="19">
-        <v>7065</v>
+        <v>2231</v>
       </c>
       <c r="AR44" s="19">
-        <v>8718</v>
+        <v>4105</v>
       </c>
       <c r="AS44" s="19">
-        <v>4435</v>
+        <v>4853</v>
       </c>
       <c r="AT44" s="19">
-        <v>2231</v>
+        <v>12012</v>
       </c>
       <c r="AU44" s="19">
-        <v>4105</v>
+        <v>7635</v>
       </c>
       <c r="AV44" s="19">
-        <v>4853</v>
+        <v>5687</v>
       </c>
       <c r="AW44" s="19">
-        <v>12012</v>
+        <v>4581</v>
       </c>
       <c r="AX44" s="19">
-        <v>7635</v>
+        <v>5459</v>
       </c>
       <c r="AY44" s="19">
-        <v>5687</v>
+        <v>3074</v>
       </c>
       <c r="AZ44" s="19">
-        <v>4581</v>
+        <v>2258</v>
       </c>
       <c r="BA44" s="19">
-        <v>5459</v>
+        <v>2844</v>
       </c>
       <c r="BB44" s="19">
-        <v>3074</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6310,125 +6310,125 @@
       <c r="N52" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="O52" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P52" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q52" s="9" t="s">
-        <v>57</v>
+      <c r="O52" s="9">
+        <v>0</v>
+      </c>
+      <c r="P52" s="9">
+        <v>5239</v>
+      </c>
+      <c r="Q52" s="9">
+        <v>13157</v>
       </c>
       <c r="R52" s="9">
-        <v>0</v>
+        <v>18276</v>
       </c>
       <c r="S52" s="9">
-        <v>5239</v>
+        <v>34863</v>
       </c>
       <c r="T52" s="9">
-        <v>13157</v>
+        <v>60030</v>
       </c>
       <c r="U52" s="9">
-        <v>18276</v>
+        <v>239652</v>
       </c>
       <c r="V52" s="9">
-        <v>34863</v>
+        <v>83929</v>
       </c>
       <c r="W52" s="9">
-        <v>60030</v>
+        <v>233910</v>
       </c>
       <c r="X52" s="9">
-        <v>239652</v>
+        <v>219787</v>
       </c>
       <c r="Y52" s="9">
-        <v>83929</v>
+        <v>30166</v>
       </c>
       <c r="Z52" s="9">
-        <v>233910</v>
+        <v>5612</v>
       </c>
       <c r="AA52" s="9">
-        <v>219787</v>
+        <v>13198</v>
       </c>
       <c r="AB52" s="9">
-        <v>30166</v>
+        <v>6235</v>
       </c>
       <c r="AC52" s="9">
-        <v>5612</v>
+        <v>11298</v>
       </c>
       <c r="AD52" s="9">
-        <v>13198</v>
+        <v>104807</v>
       </c>
       <c r="AE52" s="9">
-        <v>6235</v>
+        <v>515864</v>
       </c>
       <c r="AF52" s="9">
-        <v>11298</v>
+        <v>1151607</v>
       </c>
       <c r="AG52" s="9">
-        <v>104807</v>
+        <v>156823</v>
       </c>
       <c r="AH52" s="9">
-        <v>515864</v>
+        <v>238022</v>
       </c>
       <c r="AI52" s="9">
-        <v>1151607</v>
+        <v>107514</v>
       </c>
       <c r="AJ52" s="9">
-        <v>156823</v>
+        <v>186825</v>
       </c>
       <c r="AK52" s="9">
-        <v>238022</v>
+        <v>744732</v>
       </c>
       <c r="AL52" s="9">
-        <v>107514</v>
+        <v>336444</v>
       </c>
       <c r="AM52" s="9">
-        <v>186825</v>
+        <v>619951</v>
       </c>
       <c r="AN52" s="9">
-        <v>744732</v>
+        <v>585982</v>
       </c>
       <c r="AO52" s="9">
-        <v>336444</v>
+        <v>1050909</v>
       </c>
       <c r="AP52" s="9">
-        <v>619951</v>
+        <v>466490</v>
       </c>
       <c r="AQ52" s="9">
-        <v>585982</v>
+        <v>8746</v>
       </c>
       <c r="AR52" s="9">
-        <v>1050909</v>
+        <v>218031</v>
       </c>
       <c r="AS52" s="9">
-        <v>466490</v>
+        <v>1423387</v>
       </c>
       <c r="AT52" s="9">
-        <v>8746</v>
+        <v>2521817</v>
       </c>
       <c r="AU52" s="9">
-        <v>218031</v>
+        <v>1712970</v>
       </c>
       <c r="AV52" s="9">
-        <v>1423387</v>
+        <v>1064144</v>
       </c>
       <c r="AW52" s="9">
-        <v>2521817</v>
+        <v>943784</v>
       </c>
       <c r="AX52" s="9">
-        <v>1712970</v>
+        <v>1097669</v>
       </c>
       <c r="AY52" s="9">
-        <v>1064144</v>
+        <v>256437</v>
       </c>
       <c r="AZ52" s="9">
-        <v>943784</v>
+        <v>256493</v>
       </c>
       <c r="BA52" s="9">
-        <v>1097669</v>
+        <v>277222</v>
       </c>
       <c r="BB52" s="9">
-        <v>256437</v>
+        <v>971835</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -6454,140 +6454,140 @@
       <c r="I53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L53" s="13" t="s">
-        <v>57</v>
+      <c r="J53" s="13">
+        <v>100219</v>
+      </c>
+      <c r="K53" s="13">
+        <v>82583</v>
+      </c>
+      <c r="L53" s="13">
+        <v>59499</v>
       </c>
       <c r="M53" s="13">
-        <v>100219</v>
+        <v>65367</v>
       </c>
       <c r="N53" s="13">
-        <v>82583</v>
+        <v>54324</v>
       </c>
       <c r="O53" s="13">
-        <v>59499</v>
+        <v>67641</v>
       </c>
       <c r="P53" s="13">
-        <v>65367</v>
+        <v>74397</v>
       </c>
       <c r="Q53" s="13">
-        <v>54324</v>
+        <v>76887</v>
       </c>
       <c r="R53" s="13">
-        <v>67641</v>
+        <v>97533</v>
       </c>
       <c r="S53" s="13">
-        <v>74397</v>
+        <v>119980</v>
       </c>
       <c r="T53" s="13">
-        <v>76887</v>
+        <v>129361</v>
       </c>
       <c r="U53" s="13">
-        <v>97533</v>
+        <v>106228</v>
       </c>
       <c r="V53" s="13">
-        <v>119980</v>
+        <v>103229</v>
       </c>
       <c r="W53" s="13">
-        <v>129361</v>
+        <v>80920</v>
       </c>
       <c r="X53" s="13">
-        <v>106228</v>
+        <v>81889</v>
       </c>
       <c r="Y53" s="13">
-        <v>103229</v>
+        <v>69652</v>
       </c>
       <c r="Z53" s="13">
-        <v>80920</v>
+        <v>64515</v>
       </c>
       <c r="AA53" s="13">
-        <v>81889</v>
+        <v>71519</v>
       </c>
       <c r="AB53" s="13">
-        <v>69652</v>
+        <v>67726</v>
       </c>
       <c r="AC53" s="13">
-        <v>64515</v>
+        <v>31711</v>
       </c>
       <c r="AD53" s="13">
-        <v>71519</v>
+        <v>99672</v>
       </c>
       <c r="AE53" s="13">
-        <v>67726</v>
+        <v>101563</v>
       </c>
       <c r="AF53" s="13">
-        <v>31711</v>
+        <v>184299</v>
       </c>
       <c r="AG53" s="13">
-        <v>99672</v>
+        <v>238045</v>
       </c>
       <c r="AH53" s="13">
-        <v>101563</v>
+        <v>109782</v>
       </c>
       <c r="AI53" s="13">
-        <v>184299</v>
+        <v>101521</v>
       </c>
       <c r="AJ53" s="13">
-        <v>238045</v>
+        <v>261201</v>
       </c>
       <c r="AK53" s="13">
-        <v>109782</v>
+        <v>169776</v>
       </c>
       <c r="AL53" s="13">
-        <v>101521</v>
+        <v>247611</v>
       </c>
       <c r="AM53" s="13">
-        <v>261201</v>
+        <v>412821</v>
       </c>
       <c r="AN53" s="13">
-        <v>169776</v>
+        <v>331392</v>
       </c>
       <c r="AO53" s="13">
-        <v>247611</v>
+        <v>290751</v>
       </c>
       <c r="AP53" s="13">
-        <v>412821</v>
+        <v>106534</v>
       </c>
       <c r="AQ53" s="13">
-        <v>331392</v>
+        <v>125432</v>
       </c>
       <c r="AR53" s="13">
-        <v>290751</v>
+        <v>330335</v>
       </c>
       <c r="AS53" s="13">
-        <v>106534</v>
+        <v>507609</v>
       </c>
       <c r="AT53" s="13">
-        <v>125432</v>
+        <v>698106</v>
       </c>
       <c r="AU53" s="13">
-        <v>330335</v>
+        <v>401977</v>
       </c>
       <c r="AV53" s="13">
-        <v>507609</v>
+        <v>322480</v>
       </c>
       <c r="AW53" s="13">
-        <v>698106</v>
+        <v>178102</v>
       </c>
       <c r="AX53" s="13">
-        <v>401977</v>
+        <v>169724</v>
       </c>
       <c r="AY53" s="13">
-        <v>322480</v>
+        <v>179382</v>
       </c>
       <c r="AZ53" s="13">
-        <v>178102</v>
+        <v>115322</v>
       </c>
       <c r="BA53" s="13">
-        <v>169724</v>
+        <v>170211</v>
       </c>
       <c r="BB53" s="13">
-        <v>179382</v>
+        <v>355983</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6613,140 +6613,140 @@
       <c r="I54" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J54" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>57</v>
+      <c r="J54" s="9">
+        <v>38598</v>
+      </c>
+      <c r="K54" s="9">
+        <v>56042</v>
+      </c>
+      <c r="L54" s="9">
+        <v>36111</v>
       </c>
       <c r="M54" s="9">
-        <v>38598</v>
+        <v>70968</v>
       </c>
       <c r="N54" s="9">
-        <v>56042</v>
+        <v>62288</v>
       </c>
       <c r="O54" s="9">
-        <v>36111</v>
+        <v>64612</v>
       </c>
       <c r="P54" s="9">
-        <v>70968</v>
+        <v>50622</v>
       </c>
       <c r="Q54" s="9">
-        <v>62288</v>
+        <v>66053</v>
       </c>
       <c r="R54" s="9">
-        <v>64612</v>
+        <v>75144</v>
       </c>
       <c r="S54" s="9">
-        <v>50622</v>
+        <v>124979</v>
       </c>
       <c r="T54" s="9">
-        <v>66053</v>
+        <v>152136</v>
       </c>
       <c r="U54" s="9">
-        <v>75144</v>
+        <v>82159</v>
       </c>
       <c r="V54" s="9">
-        <v>124979</v>
+        <v>37452</v>
       </c>
       <c r="W54" s="9">
-        <v>152136</v>
+        <v>72143</v>
       </c>
       <c r="X54" s="9">
-        <v>82159</v>
+        <v>140114</v>
       </c>
       <c r="Y54" s="9">
-        <v>37452</v>
+        <v>135532</v>
       </c>
       <c r="Z54" s="9">
-        <v>72143</v>
+        <v>132443</v>
       </c>
       <c r="AA54" s="9">
-        <v>140114</v>
+        <v>213681</v>
       </c>
       <c r="AB54" s="9">
-        <v>135532</v>
+        <v>183279</v>
       </c>
       <c r="AC54" s="9">
-        <v>132443</v>
+        <v>267451</v>
       </c>
       <c r="AD54" s="9">
-        <v>213681</v>
+        <v>288879</v>
       </c>
       <c r="AE54" s="9">
-        <v>183279</v>
+        <v>209950</v>
       </c>
       <c r="AF54" s="9">
-        <v>267451</v>
+        <v>161399</v>
       </c>
       <c r="AG54" s="9">
-        <v>288879</v>
+        <v>134344</v>
       </c>
       <c r="AH54" s="9">
-        <v>209950</v>
+        <v>84642</v>
       </c>
       <c r="AI54" s="9">
-        <v>161399</v>
+        <v>69146</v>
       </c>
       <c r="AJ54" s="9">
-        <v>134344</v>
+        <v>183410</v>
       </c>
       <c r="AK54" s="9">
-        <v>84642</v>
+        <v>51193</v>
       </c>
       <c r="AL54" s="9">
-        <v>69146</v>
+        <v>78827</v>
       </c>
       <c r="AM54" s="9">
-        <v>183410</v>
+        <v>119386</v>
       </c>
       <c r="AN54" s="9">
-        <v>51193</v>
+        <v>342366</v>
       </c>
       <c r="AO54" s="9">
-        <v>78827</v>
+        <v>240619</v>
       </c>
       <c r="AP54" s="9">
-        <v>119386</v>
+        <v>101470</v>
       </c>
       <c r="AQ54" s="9">
-        <v>342366</v>
+        <v>313911</v>
       </c>
       <c r="AR54" s="9">
-        <v>240619</v>
+        <v>256490</v>
       </c>
       <c r="AS54" s="9">
-        <v>101470</v>
+        <v>254743</v>
       </c>
       <c r="AT54" s="9">
-        <v>313911</v>
+        <v>135438</v>
       </c>
       <c r="AU54" s="9">
-        <v>256490</v>
+        <v>0</v>
       </c>
       <c r="AV54" s="9">
-        <v>254743</v>
+        <v>96199</v>
       </c>
       <c r="AW54" s="9">
-        <v>135438</v>
+        <v>134606</v>
       </c>
       <c r="AX54" s="9">
-        <v>0</v>
+        <v>142410</v>
       </c>
       <c r="AY54" s="9">
-        <v>96199</v>
+        <v>81010</v>
       </c>
       <c r="AZ54" s="9">
-        <v>134606</v>
+        <v>1351</v>
       </c>
       <c r="BA54" s="9">
-        <v>142410</v>
+        <v>24793</v>
       </c>
       <c r="BB54" s="9">
-        <v>81010</v>
+        <v>126094</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -6772,140 +6772,140 @@
       <c r="I55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J55" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L55" s="13" t="s">
-        <v>57</v>
+      <c r="J55" s="13">
+        <v>6474</v>
+      </c>
+      <c r="K55" s="13">
+        <v>9434</v>
+      </c>
+      <c r="L55" s="13">
+        <v>4854</v>
       </c>
       <c r="M55" s="13">
-        <v>6474</v>
+        <v>7824</v>
       </c>
       <c r="N55" s="13">
-        <v>9434</v>
+        <v>7122</v>
       </c>
       <c r="O55" s="13">
-        <v>4854</v>
+        <v>11427</v>
       </c>
       <c r="P55" s="13">
-        <v>7824</v>
+        <v>17359</v>
       </c>
       <c r="Q55" s="13">
-        <v>7122</v>
+        <v>16399</v>
       </c>
       <c r="R55" s="13">
-        <v>11427</v>
+        <v>17367</v>
       </c>
       <c r="S55" s="13">
-        <v>17359</v>
+        <v>12271</v>
       </c>
       <c r="T55" s="13">
-        <v>16399</v>
+        <v>12580</v>
       </c>
       <c r="U55" s="13">
-        <v>17367</v>
+        <v>15739</v>
       </c>
       <c r="V55" s="13">
-        <v>12271</v>
+        <v>18244</v>
       </c>
       <c r="W55" s="13">
-        <v>12580</v>
+        <v>21651</v>
       </c>
       <c r="X55" s="13">
-        <v>15739</v>
+        <v>24546</v>
       </c>
       <c r="Y55" s="13">
-        <v>18244</v>
+        <v>24844</v>
       </c>
       <c r="Z55" s="13">
-        <v>21651</v>
+        <v>15614</v>
       </c>
       <c r="AA55" s="13">
-        <v>24546</v>
+        <v>23125</v>
       </c>
       <c r="AB55" s="13">
-        <v>24844</v>
+        <v>26695</v>
       </c>
       <c r="AC55" s="13">
-        <v>15614</v>
+        <v>24321</v>
       </c>
       <c r="AD55" s="13">
-        <v>23125</v>
+        <v>24615</v>
       </c>
       <c r="AE55" s="13">
-        <v>26695</v>
+        <v>18461</v>
       </c>
       <c r="AF55" s="13">
-        <v>24321</v>
+        <v>21932</v>
       </c>
       <c r="AG55" s="13">
-        <v>24615</v>
+        <v>36088</v>
       </c>
       <c r="AH55" s="13">
-        <v>18461</v>
+        <v>40059</v>
       </c>
       <c r="AI55" s="13">
-        <v>21932</v>
+        <v>0</v>
       </c>
       <c r="AJ55" s="13">
-        <v>36088</v>
+        <v>0</v>
       </c>
       <c r="AK55" s="13">
-        <v>40059</v>
+        <v>9689</v>
       </c>
       <c r="AL55" s="13">
-        <v>0</v>
+        <v>63324</v>
       </c>
       <c r="AM55" s="13">
-        <v>0</v>
+        <v>45775</v>
       </c>
       <c r="AN55" s="13">
-        <v>9689</v>
+        <v>55190</v>
       </c>
       <c r="AO55" s="13">
-        <v>63324</v>
+        <v>80944</v>
       </c>
       <c r="AP55" s="13">
-        <v>45775</v>
+        <v>57852</v>
       </c>
       <c r="AQ55" s="13">
-        <v>55190</v>
+        <v>23647</v>
       </c>
       <c r="AR55" s="13">
-        <v>80944</v>
+        <v>15771</v>
       </c>
       <c r="AS55" s="13">
-        <v>57852</v>
+        <v>12479</v>
       </c>
       <c r="AT55" s="13">
-        <v>23647</v>
+        <v>9869</v>
       </c>
       <c r="AU55" s="13">
-        <v>15771</v>
+        <v>3925</v>
       </c>
       <c r="AV55" s="13">
-        <v>12479</v>
+        <v>4792</v>
       </c>
       <c r="AW55" s="13">
-        <v>9869</v>
+        <v>13072</v>
       </c>
       <c r="AX55" s="13">
-        <v>3925</v>
+        <v>9922</v>
       </c>
       <c r="AY55" s="13">
-        <v>4792</v>
+        <v>11068</v>
       </c>
       <c r="AZ55" s="13">
-        <v>13072</v>
+        <v>16531</v>
       </c>
       <c r="BA55" s="13">
-        <v>9922</v>
+        <v>18387</v>
       </c>
       <c r="BB55" s="13">
-        <v>11068</v>
+        <v>8188</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -6946,74 +6946,74 @@
       <c r="N56" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="O56" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P56" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q56" s="9" t="s">
-        <v>57</v>
+      <c r="O56" s="9">
+        <v>0</v>
+      </c>
+      <c r="P56" s="9">
+        <v>165</v>
+      </c>
+      <c r="Q56" s="9">
+        <v>421</v>
       </c>
       <c r="R56" s="9">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="S56" s="9">
+        <v>813</v>
+      </c>
+      <c r="T56" s="9">
+        <v>151</v>
+      </c>
+      <c r="U56" s="9">
         <v>165</v>
       </c>
-      <c r="T56" s="9">
-        <v>421</v>
-      </c>
-      <c r="U56" s="9">
-        <v>495</v>
-      </c>
       <c r="V56" s="9">
-        <v>813</v>
+        <v>162</v>
       </c>
       <c r="W56" s="9">
-        <v>151</v>
+        <v>2070</v>
       </c>
       <c r="X56" s="9">
-        <v>165</v>
+        <v>6800</v>
       </c>
       <c r="Y56" s="9">
-        <v>162</v>
+        <v>8199</v>
       </c>
       <c r="Z56" s="9">
-        <v>2070</v>
+        <v>3854</v>
       </c>
       <c r="AA56" s="9">
-        <v>6800</v>
+        <v>2942</v>
       </c>
       <c r="AB56" s="9">
-        <v>8199</v>
+        <v>2116</v>
       </c>
       <c r="AC56" s="9">
-        <v>3854</v>
+        <v>2366</v>
       </c>
       <c r="AD56" s="9">
-        <v>2942</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="9">
-        <v>2116</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="9">
-        <v>2366</v>
-      </c>
-      <c r="AG56" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AH56" s="9">
         <v>0</v>
       </c>
-      <c r="AI56" s="9">
-        <v>0</v>
+      <c r="AI56" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AJ56" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AK56" s="9">
-        <v>0</v>
+      <c r="AK56" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AL56" s="9" t="s">
         <v>57</v>
@@ -7394,8 +7394,8 @@
       <c r="T60" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="U60" s="9" t="s">
-        <v>57</v>
+      <c r="U60" s="9">
+        <v>-188779</v>
       </c>
       <c r="V60" s="9" t="s">
         <v>57</v>
@@ -7403,8 +7403,8 @@
       <c r="W60" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="X60" s="9">
-        <v>-188779</v>
+      <c r="X60" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="Y60" s="9" t="s">
         <v>57</v>
@@ -7430,8 +7430,8 @@
       <c r="AF60" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AG60" s="9" t="s">
-        <v>57</v>
+      <c r="AG60" s="9">
+        <v>-328250</v>
       </c>
       <c r="AH60" s="9" t="s">
         <v>57</v>
@@ -7439,47 +7439,47 @@
       <c r="AI60" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AJ60" s="9">
-        <v>-328250</v>
+      <c r="AJ60" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AK60" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AL60" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM60" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN60" s="9" t="s">
-        <v>57</v>
+      <c r="AL60" s="9">
+        <v>-124340</v>
+      </c>
+      <c r="AM60" s="9">
+        <v>-85484</v>
+      </c>
+      <c r="AN60" s="9">
+        <v>-155425</v>
       </c>
       <c r="AO60" s="9">
-        <v>-124340</v>
+        <v>-31150</v>
       </c>
       <c r="AP60" s="9">
-        <v>-85484</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="9">
-        <v>-155425</v>
+        <v>0</v>
       </c>
       <c r="AR60" s="9">
-        <v>-31150</v>
+        <v>0</v>
       </c>
       <c r="AS60" s="9">
-        <v>0</v>
+        <v>-1195182</v>
       </c>
       <c r="AT60" s="9">
-        <v>0</v>
+        <v>-66100</v>
       </c>
       <c r="AU60" s="9">
         <v>0</v>
       </c>
       <c r="AV60" s="9">
-        <v>-1195182</v>
+        <v>0</v>
       </c>
       <c r="AW60" s="9">
-        <v>-66100</v>
+        <v>0</v>
       </c>
       <c r="AX60" s="9">
         <v>0</v>
@@ -7535,14 +7535,14 @@
       <c r="N61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P61" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q61" s="13" t="s">
-        <v>57</v>
+      <c r="O61" s="13">
+        <v>0</v>
+      </c>
+      <c r="P61" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="13">
+        <v>0</v>
       </c>
       <c r="R61" s="13">
         <v>0</v>
@@ -7551,20 +7551,20 @@
         <v>0</v>
       </c>
       <c r="T61" s="13">
-        <v>0</v>
+        <v>-386</v>
       </c>
       <c r="U61" s="13">
-        <v>0</v>
-      </c>
-      <c r="V61" s="13">
-        <v>0</v>
-      </c>
-      <c r="W61" s="13">
-        <v>-386</v>
-      </c>
-      <c r="X61" s="13">
         <v>-449</v>
       </c>
+      <c r="V61" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W61" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X61" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y61" s="13" t="s">
         <v>57</v>
       </c>
@@ -7574,14 +7574,14 @@
       <c r="AA61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB61" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC61" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD61" s="13" t="s">
-        <v>57</v>
+      <c r="AB61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="13">
+        <v>-10211</v>
       </c>
       <c r="AE61" s="13">
         <v>0</v>
@@ -7590,16 +7590,16 @@
         <v>0</v>
       </c>
       <c r="AG61" s="13">
-        <v>-10211</v>
-      </c>
-      <c r="AH61" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH61" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI61" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ61" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK61" s="13" t="s">
         <v>57</v>
@@ -7619,24 +7619,24 @@
       <c r="AP61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ61" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR61" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS61" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT61" s="13">
+      <c r="AQ61" s="13">
         <v>-22290</v>
       </c>
-      <c r="AU61" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV61" s="13">
+      <c r="AR61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS61" s="13">
         <v>-102416</v>
       </c>
+      <c r="AT61" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU61" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV61" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AW61" s="13" t="s">
         <v>57</v>
       </c>
@@ -7652,8 +7652,8 @@
       <c r="BA61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BB61" s="13" t="s">
-        <v>57</v>
+      <c r="BB61" s="13">
+        <v>-88968</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -7700,14 +7700,14 @@
       <c r="P62" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Q62" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R62" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S62" s="9" t="s">
-        <v>57</v>
+      <c r="Q62" s="9">
+        <v>0</v>
+      </c>
+      <c r="R62" s="9">
+        <v>0</v>
+      </c>
+      <c r="S62" s="9">
+        <v>0</v>
       </c>
       <c r="T62" s="9">
         <v>0</v>
@@ -7715,14 +7715,14 @@
       <c r="U62" s="9">
         <v>0</v>
       </c>
-      <c r="V62" s="9">
-        <v>0</v>
-      </c>
-      <c r="W62" s="9">
-        <v>0</v>
-      </c>
-      <c r="X62" s="9">
-        <v>0</v>
+      <c r="V62" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W62" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X62" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="Y62" s="9" t="s">
         <v>57</v>
@@ -7736,14 +7736,14 @@
       <c r="AB62" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AC62" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD62" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE62" s="9" t="s">
-        <v>57</v>
+      <c r="AC62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="9">
+        <v>0</v>
       </c>
       <c r="AF62" s="9">
         <v>0</v>
@@ -7751,14 +7751,14 @@
       <c r="AG62" s="9">
         <v>0</v>
       </c>
-      <c r="AH62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI62" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ62" s="9">
-        <v>0</v>
+      <c r="AH62" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI62" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ62" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AK62" s="9" t="s">
         <v>57</v>
@@ -7853,35 +7853,35 @@
       <c r="N63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O63" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P63" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q63" s="13" t="s">
-        <v>57</v>
+      <c r="O63" s="13">
+        <v>0</v>
+      </c>
+      <c r="P63" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="13">
+        <v>-154</v>
       </c>
       <c r="R63" s="13">
         <v>0</v>
       </c>
       <c r="S63" s="13">
-        <v>0</v>
+        <v>-2583</v>
       </c>
       <c r="T63" s="13">
-        <v>-154</v>
+        <v>-557</v>
       </c>
       <c r="U63" s="13">
         <v>0</v>
       </c>
-      <c r="V63" s="13">
-        <v>-2583</v>
-      </c>
-      <c r="W63" s="13">
-        <v>-557</v>
-      </c>
-      <c r="X63" s="13">
-        <v>0</v>
+      <c r="V63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X63" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Y63" s="13" t="s">
         <v>57</v>
@@ -7892,17 +7892,17 @@
       <c r="AA63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB63" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC63" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD63" s="13" t="s">
-        <v>57</v>
+      <c r="AB63" s="13">
+        <v>-2956</v>
+      </c>
+      <c r="AC63" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="13">
+        <v>0</v>
       </c>
       <c r="AE63" s="13">
-        <v>-2956</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="13">
         <v>0</v>
@@ -7910,8 +7910,8 @@
       <c r="AG63" s="13">
         <v>0</v>
       </c>
-      <c r="AH63" s="13">
-        <v>0</v>
+      <c r="AH63" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI63" s="13">
         <v>0</v>
@@ -7919,8 +7919,8 @@
       <c r="AJ63" s="13">
         <v>0</v>
       </c>
-      <c r="AK63" s="13" t="s">
-        <v>57</v>
+      <c r="AK63" s="13">
+        <v>0</v>
       </c>
       <c r="AL63" s="13">
         <v>0</v>
@@ -7929,13 +7929,13 @@
         <v>0</v>
       </c>
       <c r="AN63" s="13">
-        <v>0</v>
+        <v>-935</v>
       </c>
       <c r="AO63" s="13">
         <v>0</v>
       </c>
       <c r="AP63" s="13">
-        <v>0</v>
+        <v>-1054</v>
       </c>
       <c r="AQ63" s="13">
         <v>-935</v>
@@ -7944,31 +7944,31 @@
         <v>0</v>
       </c>
       <c r="AS63" s="13">
-        <v>-1054</v>
-      </c>
-      <c r="AT63" s="13">
-        <v>-935</v>
-      </c>
-      <c r="AU63" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AT63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU63" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV63" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW63" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX63" s="13" t="s">
-        <v>57</v>
+        <v>-761</v>
+      </c>
+      <c r="AW63" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX63" s="13">
+        <v>0</v>
       </c>
       <c r="AY63" s="13">
-        <v>-761</v>
+        <v>0</v>
       </c>
       <c r="AZ63" s="13">
         <v>0</v>
       </c>
       <c r="BA63" s="13">
-        <v>0</v>
+        <v>-3018</v>
       </c>
       <c r="BB63" s="13">
         <v>0</v>
@@ -8027,20 +8027,20 @@
       <c r="S64" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="T64" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="U64" s="9" t="s">
-        <v>57</v>
+      <c r="T64" s="9">
+        <v>-29</v>
+      </c>
+      <c r="U64" s="9">
+        <v>0</v>
       </c>
       <c r="V64" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="W64" s="9">
-        <v>-29</v>
-      </c>
-      <c r="X64" s="9">
-        <v>0</v>
+      <c r="W64" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X64" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="Y64" s="9" t="s">
         <v>57</v>
@@ -8176,28 +8176,28 @@
         <v>0</v>
       </c>
       <c r="Q65" s="19">
-        <v>0</v>
+        <v>-154</v>
       </c>
       <c r="R65" s="19">
         <v>0</v>
       </c>
       <c r="S65" s="19">
-        <v>0</v>
+        <v>-2583</v>
       </c>
       <c r="T65" s="19">
-        <v>-154</v>
+        <v>-972</v>
       </c>
       <c r="U65" s="19">
-        <v>0</v>
+        <v>-189228</v>
       </c>
       <c r="V65" s="19">
-        <v>-2583</v>
+        <v>0</v>
       </c>
       <c r="W65" s="19">
-        <v>-972</v>
+        <v>0</v>
       </c>
       <c r="X65" s="19">
-        <v>-189228</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="19">
         <v>0</v>
@@ -8209,22 +8209,22 @@
         <v>0</v>
       </c>
       <c r="AB65" s="19">
-        <v>0</v>
+        <v>-2956</v>
       </c>
       <c r="AC65" s="19">
         <v>0</v>
       </c>
       <c r="AD65" s="19">
-        <v>0</v>
+        <v>-10211</v>
       </c>
       <c r="AE65" s="19">
-        <v>-2956</v>
+        <v>0</v>
       </c>
       <c r="AF65" s="19">
         <v>0</v>
       </c>
       <c r="AG65" s="19">
-        <v>-10211</v>
+        <v>-328250</v>
       </c>
       <c r="AH65" s="19">
         <v>0</v>
@@ -8233,61 +8233,61 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="19">
-        <v>-328250</v>
+        <v>0</v>
       </c>
       <c r="AK65" s="19">
         <v>0</v>
       </c>
       <c r="AL65" s="19">
-        <v>0</v>
+        <v>-124340</v>
       </c>
       <c r="AM65" s="19">
-        <v>0</v>
+        <v>-85484</v>
       </c>
       <c r="AN65" s="19">
-        <v>0</v>
+        <v>-156360</v>
       </c>
       <c r="AO65" s="19">
-        <v>-124340</v>
+        <v>-31150</v>
       </c>
       <c r="AP65" s="19">
-        <v>-85484</v>
+        <v>-1054</v>
       </c>
       <c r="AQ65" s="19">
-        <v>-156360</v>
+        <v>-23225</v>
       </c>
       <c r="AR65" s="19">
-        <v>-31150</v>
+        <v>0</v>
       </c>
       <c r="AS65" s="19">
-        <v>-1054</v>
+        <v>-1297598</v>
       </c>
       <c r="AT65" s="19">
-        <v>-23225</v>
+        <v>-66100</v>
       </c>
       <c r="AU65" s="19">
         <v>0</v>
       </c>
       <c r="AV65" s="19">
-        <v>-1297598</v>
+        <v>-761</v>
       </c>
       <c r="AW65" s="19">
-        <v>-66100</v>
+        <v>0</v>
       </c>
       <c r="AX65" s="19">
         <v>0</v>
       </c>
       <c r="AY65" s="19">
-        <v>-761</v>
+        <v>0</v>
       </c>
       <c r="AZ65" s="19">
         <v>0</v>
       </c>
       <c r="BA65" s="19">
-        <v>0</v>
+        <v>-3018</v>
       </c>
       <c r="BB65" s="19">
-        <v>0</v>
+        <v>-88968</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8370,14 +8370,14 @@
       <c r="I67" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J67" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>57</v>
+      <c r="J67" s="9">
+        <v>0</v>
+      </c>
+      <c r="K67" s="9">
+        <v>0</v>
+      </c>
+      <c r="L67" s="9">
+        <v>0</v>
       </c>
       <c r="M67" s="9">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="AN67" s="9">
-        <v>0</v>
+        <v>-430</v>
       </c>
       <c r="AO67" s="9">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="AQ67" s="9">
-        <v>-430</v>
+        <v>0</v>
       </c>
       <c r="AR67" s="9">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="AN68" s="19">
-        <v>0</v>
+        <v>-430</v>
       </c>
       <c r="AO68" s="19">
         <v>0</v>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="AQ68" s="19">
-        <v>-430</v>
+        <v>0</v>
       </c>
       <c r="AR68" s="19">
         <v>0</v>
@@ -8685,139 +8685,139 @@
         <v>0</v>
       </c>
       <c r="J69" s="17">
-        <v>0</v>
+        <v>145291</v>
       </c>
       <c r="K69" s="17">
-        <v>0</v>
+        <v>148059</v>
       </c>
       <c r="L69" s="17">
-        <v>0</v>
+        <v>100464</v>
       </c>
       <c r="M69" s="17">
-        <v>145291</v>
+        <v>144159</v>
       </c>
       <c r="N69" s="17">
-        <v>148059</v>
+        <v>123734</v>
       </c>
       <c r="O69" s="17">
-        <v>100464</v>
+        <v>143680</v>
       </c>
       <c r="P69" s="17">
-        <v>144159</v>
+        <v>147782</v>
       </c>
       <c r="Q69" s="17">
-        <v>123734</v>
+        <v>172763</v>
       </c>
       <c r="R69" s="17">
-        <v>143680</v>
+        <v>208815</v>
       </c>
       <c r="S69" s="17">
-        <v>147782</v>
+        <v>290323</v>
       </c>
       <c r="T69" s="17">
-        <v>172763</v>
+        <v>353286</v>
       </c>
       <c r="U69" s="17">
-        <v>208815</v>
+        <v>254715</v>
       </c>
       <c r="V69" s="17">
-        <v>290323</v>
+        <v>243016</v>
       </c>
       <c r="W69" s="17">
-        <v>353286</v>
+        <v>410694</v>
       </c>
       <c r="X69" s="17">
-        <v>254715</v>
+        <v>473136</v>
       </c>
       <c r="Y69" s="17">
-        <v>243016</v>
+        <v>268393</v>
       </c>
       <c r="Z69" s="17">
-        <v>410694</v>
+        <v>222038</v>
       </c>
       <c r="AA69" s="17">
-        <v>473136</v>
+        <v>324465</v>
       </c>
       <c r="AB69" s="17">
-        <v>268393</v>
+        <v>283095</v>
       </c>
       <c r="AC69" s="17">
-        <v>222038</v>
+        <v>337147</v>
       </c>
       <c r="AD69" s="17">
-        <v>324465</v>
+        <v>507762</v>
       </c>
       <c r="AE69" s="17">
-        <v>283095</v>
+        <v>845838</v>
       </c>
       <c r="AF69" s="17">
-        <v>337147</v>
+        <v>1519237</v>
       </c>
       <c r="AG69" s="17">
-        <v>507762</v>
+        <v>237050</v>
       </c>
       <c r="AH69" s="17">
-        <v>845838</v>
+        <v>472505</v>
       </c>
       <c r="AI69" s="17">
-        <v>1519237</v>
+        <v>278181</v>
       </c>
       <c r="AJ69" s="17">
-        <v>237050</v>
+        <v>631436</v>
       </c>
       <c r="AK69" s="17">
-        <v>472505</v>
+        <v>975390</v>
       </c>
       <c r="AL69" s="17">
-        <v>278181</v>
+        <v>601866</v>
       </c>
       <c r="AM69" s="17">
-        <v>631436</v>
+        <v>1112449</v>
       </c>
       <c r="AN69" s="17">
-        <v>975390</v>
+        <v>1158140</v>
       </c>
       <c r="AO69" s="17">
-        <v>601866</v>
+        <v>1632073</v>
       </c>
       <c r="AP69" s="17">
-        <v>1112449</v>
+        <v>731292</v>
       </c>
       <c r="AQ69" s="17">
-        <v>1158140</v>
+        <v>448511</v>
       </c>
       <c r="AR69" s="17">
-        <v>1632073</v>
+        <v>820627</v>
       </c>
       <c r="AS69" s="17">
-        <v>731292</v>
+        <v>900620</v>
       </c>
       <c r="AT69" s="17">
-        <v>448511</v>
+        <v>3299130</v>
       </c>
       <c r="AU69" s="17">
-        <v>820627</v>
+        <v>2118872</v>
       </c>
       <c r="AV69" s="17">
-        <v>900620</v>
+        <v>1486854</v>
       </c>
       <c r="AW69" s="17">
-        <v>3299130</v>
+        <v>1269564</v>
       </c>
       <c r="AX69" s="17">
-        <v>2118872</v>
+        <v>1419725</v>
       </c>
       <c r="AY69" s="17">
-        <v>1486854</v>
+        <v>527897</v>
       </c>
       <c r="AZ69" s="17">
-        <v>1269564</v>
+        <v>389697</v>
       </c>
       <c r="BA69" s="17">
-        <v>1419725</v>
+        <v>487595</v>
       </c>
       <c r="BB69" s="17">
-        <v>527897</v>
+        <v>1373132</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -9350,122 +9350,122 @@
       <c r="O77" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="P77" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q77" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R77" s="9" t="s">
-        <v>57</v>
+      <c r="P77" s="9">
+        <v>119068182</v>
+      </c>
+      <c r="Q77" s="9">
+        <v>110563025</v>
+      </c>
+      <c r="R77" s="9">
+        <v>110096386</v>
       </c>
       <c r="S77" s="9">
-        <v>119068182</v>
+        <v>103144970</v>
       </c>
       <c r="T77" s="9">
-        <v>110563025</v>
+        <v>114561069</v>
       </c>
       <c r="U77" s="9">
-        <v>110096386</v>
+        <v>115829870</v>
       </c>
       <c r="V77" s="9">
-        <v>103144970</v>
+        <v>116730181</v>
       </c>
       <c r="W77" s="9">
-        <v>114561069</v>
+        <v>117779456</v>
       </c>
       <c r="X77" s="9">
-        <v>115829870</v>
+        <v>118038131</v>
       </c>
       <c r="Y77" s="9">
-        <v>116730181</v>
+        <v>117835938</v>
       </c>
       <c r="Z77" s="9">
-        <v>117779456</v>
+        <v>116916667</v>
       </c>
       <c r="AA77" s="9">
-        <v>118038131</v>
+        <v>126903846</v>
       </c>
       <c r="AB77" s="9">
-        <v>117835938</v>
+        <v>124700000</v>
       </c>
       <c r="AC77" s="9">
-        <v>116916667</v>
+        <v>152675676</v>
       </c>
       <c r="AD77" s="9">
-        <v>126903846</v>
+        <v>149297721</v>
       </c>
       <c r="AE77" s="9">
-        <v>124700000</v>
+        <v>159069997</v>
       </c>
       <c r="AF77" s="9">
-        <v>152675676</v>
+        <v>156425835</v>
       </c>
       <c r="AG77" s="9">
-        <v>149297721</v>
+        <v>159049696</v>
       </c>
       <c r="AH77" s="9">
-        <v>159069997</v>
+        <v>159961022</v>
       </c>
       <c r="AI77" s="9">
-        <v>156425835</v>
+        <v>159044379</v>
       </c>
       <c r="AJ77" s="9">
-        <v>159049696</v>
+        <v>257334711</v>
       </c>
       <c r="AK77" s="9">
-        <v>159961022</v>
+        <v>309274086</v>
       </c>
       <c r="AL77" s="9">
-        <v>159044379</v>
+        <v>308664220</v>
       </c>
       <c r="AM77" s="9">
-        <v>257334711</v>
+        <v>303897549</v>
       </c>
       <c r="AN77" s="9">
-        <v>309274086</v>
+        <v>308736565</v>
       </c>
       <c r="AO77" s="9">
-        <v>308664220</v>
+        <v>322562615</v>
       </c>
       <c r="AP77" s="9">
-        <v>303897549</v>
+        <v>303309493</v>
       </c>
       <c r="AQ77" s="9">
-        <v>308736565</v>
+        <v>312357143</v>
       </c>
       <c r="AR77" s="9">
-        <v>322562615</v>
+        <v>415297143</v>
       </c>
       <c r="AS77" s="9">
-        <v>303309493</v>
+        <v>413895609</v>
       </c>
       <c r="AT77" s="9">
-        <v>312357143</v>
+        <v>412938759</v>
       </c>
       <c r="AU77" s="9">
-        <v>415297143</v>
+        <v>412068800</v>
       </c>
       <c r="AV77" s="9">
-        <v>413895609</v>
+        <v>412299109</v>
       </c>
       <c r="AW77" s="9">
-        <v>412938759</v>
+        <v>413577564</v>
       </c>
       <c r="AX77" s="9">
-        <v>412068800</v>
+        <v>408663068</v>
       </c>
       <c r="AY77" s="9">
-        <v>412299109</v>
+        <v>410299200</v>
       </c>
       <c r="AZ77" s="9">
-        <v>413577564</v>
+        <v>409079745</v>
       </c>
       <c r="BA77" s="9">
-        <v>408663068</v>
+        <v>412532738</v>
       </c>
       <c r="BB77" s="9">
-        <v>410299200</v>
+        <v>412844095</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -9491,140 +9491,140 @@
       <c r="I78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J78" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K78" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L78" s="13" t="s">
-        <v>57</v>
+      <c r="J78" s="13">
+        <v>16014541</v>
+      </c>
+      <c r="K78" s="13">
+        <v>16004457</v>
+      </c>
+      <c r="L78" s="13">
+        <v>16002959</v>
       </c>
       <c r="M78" s="13">
-        <v>16014541</v>
+        <v>16752178</v>
       </c>
       <c r="N78" s="13">
-        <v>16004457</v>
+        <v>17072282</v>
       </c>
       <c r="O78" s="13">
-        <v>16002959</v>
+        <v>18050789</v>
       </c>
       <c r="P78" s="13">
-        <v>16752178</v>
+        <v>21570600</v>
       </c>
       <c r="Q78" s="13">
-        <v>17072282</v>
+        <v>26286154</v>
       </c>
       <c r="R78" s="13">
-        <v>18050789</v>
+        <v>28002584</v>
       </c>
       <c r="S78" s="13">
-        <v>21570600</v>
+        <v>30002501</v>
       </c>
       <c r="T78" s="13">
-        <v>26286154</v>
+        <v>30910633</v>
       </c>
       <c r="U78" s="13">
-        <v>28002584</v>
+        <v>33010566</v>
       </c>
       <c r="V78" s="13">
-        <v>30002501</v>
+        <v>34617371</v>
       </c>
       <c r="W78" s="13">
-        <v>30910633</v>
+        <v>36157283</v>
       </c>
       <c r="X78" s="13">
-        <v>33010566</v>
+        <v>36804045</v>
       </c>
       <c r="Y78" s="13">
-        <v>34617371</v>
+        <v>37207265</v>
       </c>
       <c r="Z78" s="13">
-        <v>36157283</v>
+        <v>38585526</v>
       </c>
       <c r="AA78" s="13">
-        <v>36804045</v>
+        <v>39843454</v>
       </c>
       <c r="AB78" s="13">
-        <v>37207265</v>
+        <v>45423206</v>
       </c>
       <c r="AC78" s="13">
-        <v>38585526</v>
+        <v>46158661</v>
       </c>
       <c r="AD78" s="13">
-        <v>39843454</v>
+        <v>51510078</v>
       </c>
       <c r="AE78" s="13">
-        <v>45423206</v>
+        <v>54750943</v>
       </c>
       <c r="AF78" s="13">
-        <v>46158661</v>
+        <v>58120151</v>
       </c>
       <c r="AG78" s="13">
-        <v>51510078</v>
+        <v>63682451</v>
       </c>
       <c r="AH78" s="13">
-        <v>54750943</v>
+        <v>67227189</v>
       </c>
       <c r="AI78" s="13">
-        <v>58120151</v>
+        <v>82403409</v>
       </c>
       <c r="AJ78" s="13">
-        <v>63682451</v>
+        <v>91681643</v>
       </c>
       <c r="AK78" s="13">
-        <v>67227189</v>
+        <v>89074502</v>
       </c>
       <c r="AL78" s="13">
-        <v>82403409</v>
+        <v>93863154</v>
       </c>
       <c r="AM78" s="13">
-        <v>91681643</v>
+        <v>99045345</v>
       </c>
       <c r="AN78" s="13">
-        <v>89074502</v>
+        <v>100880365</v>
       </c>
       <c r="AO78" s="13">
-        <v>93863154</v>
+        <v>103139766</v>
       </c>
       <c r="AP78" s="13">
-        <v>99045345</v>
+        <v>102044061</v>
       </c>
       <c r="AQ78" s="13">
-        <v>100880365</v>
+        <v>105939189</v>
       </c>
       <c r="AR78" s="13">
-        <v>103139766</v>
+        <v>119039640</v>
       </c>
       <c r="AS78" s="13">
-        <v>102044061</v>
+        <v>113966996</v>
       </c>
       <c r="AT78" s="13">
-        <v>105939189</v>
+        <v>124550580</v>
       </c>
       <c r="AU78" s="13">
-        <v>119039640</v>
+        <v>119850030</v>
       </c>
       <c r="AV78" s="13">
-        <v>113966996</v>
+        <v>116713717</v>
       </c>
       <c r="AW78" s="13">
-        <v>124550580</v>
+        <v>110759950</v>
       </c>
       <c r="AX78" s="13">
-        <v>119850030</v>
+        <v>106143840</v>
       </c>
       <c r="AY78" s="13">
-        <v>116713717</v>
+        <v>95619403</v>
       </c>
       <c r="AZ78" s="13">
-        <v>110759950</v>
+        <v>102782531</v>
       </c>
       <c r="BA78" s="13">
-        <v>106143840</v>
+        <v>107660342</v>
       </c>
       <c r="BB78" s="13">
-        <v>95619403</v>
+        <v>103423300</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -9650,140 +9650,140 @@
       <c r="I79" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J79" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K79" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L79" s="9" t="s">
-        <v>57</v>
+      <c r="J79" s="9">
+        <v>135431579</v>
+      </c>
+      <c r="K79" s="9">
+        <v>133751790</v>
+      </c>
+      <c r="L79" s="9">
+        <v>133744444</v>
       </c>
       <c r="M79" s="9">
-        <v>135431579</v>
+        <v>206903790</v>
       </c>
       <c r="N79" s="9">
-        <v>133751790</v>
+        <v>188751515</v>
       </c>
       <c r="O79" s="9">
-        <v>133744444</v>
+        <v>176364455</v>
       </c>
       <c r="P79" s="9">
-        <v>206903790</v>
+        <v>222026316</v>
       </c>
       <c r="Q79" s="9">
-        <v>188751515</v>
+        <v>237600719</v>
       </c>
       <c r="R79" s="9">
-        <v>176364455</v>
+        <v>252161074</v>
       </c>
       <c r="S79" s="9">
-        <v>222026316</v>
+        <v>286649083</v>
       </c>
       <c r="T79" s="9">
-        <v>237600719</v>
+        <v>303059761</v>
       </c>
       <c r="U79" s="9">
-        <v>252161074</v>
+        <v>336717213</v>
       </c>
       <c r="V79" s="9">
-        <v>286649083</v>
+        <v>312100000</v>
       </c>
       <c r="W79" s="9">
-        <v>303059761</v>
+        <v>364358586</v>
       </c>
       <c r="X79" s="9">
-        <v>336717213</v>
+        <v>345960494</v>
       </c>
       <c r="Y79" s="9">
-        <v>312100000</v>
+        <v>365315364</v>
       </c>
       <c r="Z79" s="9">
-        <v>364358586</v>
+        <v>401342424</v>
       </c>
       <c r="AA79" s="9">
-        <v>345960494</v>
+        <v>481263514</v>
       </c>
       <c r="AB79" s="9">
-        <v>365315364</v>
+        <v>572746875</v>
       </c>
       <c r="AC79" s="9">
-        <v>401342424</v>
+        <v>742919444</v>
       </c>
       <c r="AD79" s="9">
-        <v>481263514</v>
+        <v>800218837</v>
       </c>
       <c r="AE79" s="9">
-        <v>572746875</v>
+        <v>792264151</v>
       </c>
       <c r="AF79" s="9">
-        <v>742919444</v>
+        <v>645596000</v>
       </c>
       <c r="AG79" s="9">
-        <v>800218837</v>
+        <v>671720000</v>
       </c>
       <c r="AH79" s="9">
-        <v>792264151</v>
+        <v>587791667</v>
       </c>
       <c r="AI79" s="9">
-        <v>645596000</v>
+        <v>553168000</v>
       </c>
       <c r="AJ79" s="9">
-        <v>671720000</v>
+        <v>562607362</v>
       </c>
       <c r="AK79" s="9">
-        <v>587791667</v>
+        <v>497019417</v>
       </c>
       <c r="AL79" s="9">
-        <v>553168000</v>
+        <v>453028736</v>
       </c>
       <c r="AM79" s="9">
-        <v>562607362</v>
+        <v>438919118</v>
       </c>
       <c r="AN79" s="9">
-        <v>497019417</v>
+        <v>440625483</v>
       </c>
       <c r="AO79" s="9">
-        <v>453028736</v>
+        <v>412018836</v>
       </c>
       <c r="AP79" s="9">
-        <v>438919118</v>
+        <v>409153226</v>
       </c>
       <c r="AQ79" s="9">
-        <v>440625483</v>
+        <v>517151565</v>
       </c>
       <c r="AR79" s="9">
-        <v>412018836</v>
+        <v>726600567</v>
       </c>
       <c r="AS79" s="9">
-        <v>409153226</v>
+        <v>866472789</v>
       </c>
       <c r="AT79" s="9">
-        <v>517151565</v>
-      </c>
-      <c r="AU79" s="9">
-        <v>726600567</v>
+        <v>601946667</v>
+      </c>
+      <c r="AU79" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AV79" s="9">
-        <v>866472789</v>
+        <v>437268182</v>
       </c>
       <c r="AW79" s="9">
-        <v>601946667</v>
-      </c>
-      <c r="AX79" s="9" t="s">
-        <v>57</v>
+        <v>410384146</v>
+      </c>
+      <c r="AX79" s="9">
+        <v>401154930</v>
       </c>
       <c r="AY79" s="9">
-        <v>437268182</v>
+        <v>355307018</v>
       </c>
       <c r="AZ79" s="9">
-        <v>410384146</v>
+        <v>337750000</v>
       </c>
       <c r="BA79" s="9">
-        <v>401154930</v>
+        <v>344347222</v>
       </c>
       <c r="BB79" s="9">
-        <v>355307018</v>
+        <v>389179012</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -9809,140 +9809,140 @@
       <c r="I80" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J80" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K80" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L80" s="13" t="s">
-        <v>57</v>
+      <c r="J80" s="13">
+        <v>5440336</v>
+      </c>
+      <c r="K80" s="13">
+        <v>6941869</v>
+      </c>
+      <c r="L80" s="13">
+        <v>6944206</v>
       </c>
       <c r="M80" s="13">
-        <v>5440336</v>
+        <v>6530885</v>
       </c>
       <c r="N80" s="13">
-        <v>6941869</v>
+        <v>6521978</v>
       </c>
       <c r="O80" s="13">
-        <v>6944206</v>
+        <v>7345294</v>
       </c>
       <c r="P80" s="13">
-        <v>6530885</v>
+        <v>8081471</v>
       </c>
       <c r="Q80" s="13">
-        <v>6521978</v>
+        <v>10566366</v>
       </c>
       <c r="R80" s="13">
-        <v>7345294</v>
+        <v>10628519</v>
       </c>
       <c r="S80" s="13">
-        <v>8081471</v>
+        <v>9069475</v>
       </c>
       <c r="T80" s="13">
-        <v>10566366</v>
+        <v>12771574</v>
       </c>
       <c r="U80" s="13">
-        <v>10628519</v>
+        <v>15310311</v>
       </c>
       <c r="V80" s="13">
-        <v>9069475</v>
+        <v>13821212</v>
       </c>
       <c r="W80" s="13">
-        <v>12771574</v>
+        <v>18117992</v>
       </c>
       <c r="X80" s="13">
-        <v>15310311</v>
+        <v>20696459</v>
       </c>
       <c r="Y80" s="13">
-        <v>13821212</v>
+        <v>19670625</v>
       </c>
       <c r="Z80" s="13">
-        <v>18117992</v>
+        <v>17743182</v>
       </c>
       <c r="AA80" s="13">
-        <v>20696459</v>
+        <v>20537300</v>
       </c>
       <c r="AB80" s="13">
-        <v>19670625</v>
+        <v>18410345</v>
       </c>
       <c r="AC80" s="13">
-        <v>17743182</v>
+        <v>18766204</v>
       </c>
       <c r="AD80" s="13">
-        <v>20537300</v>
+        <v>23069353</v>
       </c>
       <c r="AE80" s="13">
-        <v>18410345</v>
+        <v>24647530</v>
       </c>
       <c r="AF80" s="13">
-        <v>18766204</v>
+        <v>22494359</v>
       </c>
       <c r="AG80" s="13">
-        <v>23069353</v>
+        <v>24350877</v>
       </c>
       <c r="AH80" s="13">
-        <v>24647530</v>
-      </c>
-      <c r="AI80" s="13">
-        <v>22494359</v>
-      </c>
-      <c r="AJ80" s="13">
-        <v>24350877</v>
+        <v>30790930</v>
+      </c>
+      <c r="AI80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ80" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK80" s="13">
-        <v>30790930</v>
-      </c>
-      <c r="AL80" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM80" s="13" t="s">
-        <v>57</v>
+        <v>42126087</v>
+      </c>
+      <c r="AL80" s="13">
+        <v>42413932</v>
+      </c>
+      <c r="AM80" s="13">
+        <v>31203136</v>
       </c>
       <c r="AN80" s="13">
-        <v>42126087</v>
+        <v>33817402</v>
       </c>
       <c r="AO80" s="13">
-        <v>42413932</v>
+        <v>35863536</v>
       </c>
       <c r="AP80" s="13">
-        <v>31203136</v>
+        <v>35470264</v>
       </c>
       <c r="AQ80" s="13">
-        <v>33817402</v>
+        <v>37006260</v>
       </c>
       <c r="AR80" s="13">
-        <v>35863536</v>
+        <v>34891593</v>
       </c>
       <c r="AS80" s="13">
-        <v>35470264</v>
+        <v>34095628</v>
       </c>
       <c r="AT80" s="13">
-        <v>37006260</v>
+        <v>35887273</v>
       </c>
       <c r="AU80" s="13">
-        <v>34891593</v>
+        <v>31653226</v>
       </c>
       <c r="AV80" s="13">
-        <v>34095628</v>
+        <v>32161074</v>
       </c>
       <c r="AW80" s="13">
-        <v>35887273</v>
+        <v>36011019</v>
       </c>
       <c r="AX80" s="13">
-        <v>31653226</v>
+        <v>12114774</v>
       </c>
       <c r="AY80" s="13">
-        <v>32161074</v>
+        <v>32081159</v>
       </c>
       <c r="AZ80" s="13">
-        <v>36011019</v>
+        <v>32734653</v>
       </c>
       <c r="BA80" s="13">
-        <v>12114774</v>
+        <v>30696160</v>
       </c>
       <c r="BB80" s="13">
-        <v>32081159</v>
+        <v>30781955</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -9986,56 +9986,56 @@
       <c r="O81" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="P81" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q81" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R81" s="9" t="s">
-        <v>57</v>
+      <c r="P81" s="9">
+        <v>591398</v>
+      </c>
+      <c r="Q81" s="9">
+        <v>442227</v>
+      </c>
+      <c r="R81" s="9">
+        <v>366124</v>
       </c>
       <c r="S81" s="9">
-        <v>591398</v>
+        <v>298021</v>
       </c>
       <c r="T81" s="9">
-        <v>442227</v>
+        <v>302605</v>
       </c>
       <c r="U81" s="9">
-        <v>366124</v>
+        <v>284483</v>
       </c>
       <c r="V81" s="9">
-        <v>298021</v>
+        <v>122542</v>
       </c>
       <c r="W81" s="9">
-        <v>302605</v>
+        <v>1371769</v>
       </c>
       <c r="X81" s="9">
-        <v>284483</v>
+        <v>2950108</v>
       </c>
       <c r="Y81" s="9">
-        <v>122542</v>
+        <v>3926724</v>
       </c>
       <c r="Z81" s="9">
-        <v>1371769</v>
+        <v>2917487</v>
       </c>
       <c r="AA81" s="9">
-        <v>2950108</v>
+        <v>1801592</v>
       </c>
       <c r="AB81" s="9">
-        <v>3926724</v>
+        <v>1193457</v>
       </c>
       <c r="AC81" s="9">
-        <v>2917487</v>
-      </c>
-      <c r="AD81" s="9">
-        <v>1801592</v>
-      </c>
-      <c r="AE81" s="9">
-        <v>1193457</v>
-      </c>
-      <c r="AF81" s="9">
         <v>1488987</v>
+      </c>
+      <c r="AD81" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE81" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF81" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AG81" s="9" t="s">
         <v>57</v>
@@ -10680,19 +10680,19 @@
         <v>57</v>
       </c>
       <c r="AX88" s="13">
-        <v>14352</v>
+        <v>41875</v>
       </c>
       <c r="AY88" s="13">
-        <v>15757</v>
+        <v>36354</v>
       </c>
       <c r="AZ88" s="13">
-        <v>38885</v>
+        <v>22228</v>
       </c>
       <c r="BA88" s="13">
-        <v>41875</v>
+        <v>17633</v>
       </c>
       <c r="BB88" s="13">
-        <v>36354602</v>
+        <v>36768</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -10837,19 +10837,19 @@
         <v>0</v>
       </c>
       <c r="AX89" s="17">
-        <v>14352</v>
+        <v>41875</v>
       </c>
       <c r="AY89" s="17">
-        <v>15757</v>
+        <v>36354</v>
       </c>
       <c r="AZ89" s="17">
-        <v>38885</v>
+        <v>22228</v>
       </c>
       <c r="BA89" s="17">
-        <v>41875</v>
+        <v>17633</v>
       </c>
       <c r="BB89" s="17">
-        <v>36354602</v>
+        <v>36768</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -11428,19 +11428,19 @@
         <v>57</v>
       </c>
       <c r="AX96" s="13">
-        <v>573432</v>
+        <v>848994</v>
       </c>
       <c r="AY96" s="13">
-        <v>715616</v>
+        <v>737072</v>
       </c>
       <c r="AZ96" s="13">
-        <v>777405</v>
+        <v>504844</v>
       </c>
       <c r="BA96" s="13">
-        <v>848994</v>
+        <v>533930</v>
       </c>
       <c r="BB96" s="13">
-        <v>737072</v>
+        <v>868070</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.3">
@@ -11964,19 +11964,19 @@
         <v>57</v>
       </c>
       <c r="AX103" s="13">
-        <v>25028</v>
+        <v>49323</v>
       </c>
       <c r="AY103" s="13">
-        <v>22019</v>
+        <v>49322</v>
       </c>
       <c r="AZ103" s="13">
-        <v>50019</v>
+        <v>44029</v>
       </c>
       <c r="BA103" s="13">
-        <v>49323</v>
+        <v>33025</v>
       </c>
       <c r="BB103" s="13">
-        <v>49323000</v>
+        <v>42356</v>
       </c>
     </row>
   </sheetData>
